--- a/backend/src/excel_handler/files/EDN.xlsx
+++ b/backend/src/excel_handler/files/EDN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>30-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2290385.62</v>
+        <v>2903996.4</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>134728.57</v>
+        <v>131999.84</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>219975.29</v>
+        <v>220860.46</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>232790.49</v>
+        <v>128017.9</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>369625.85</v>
+        <v>218492.59</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>166630.16</v>
+        <v>156438.09</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4366.06</v>
+        <v>3212.02</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>546361.65</v>
+        <v>544953.29</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>154912.27</v>
+        <v>155193.73</v>
       </c>
     </row>
     <row r="11">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1079.47</v>
+        <v>1117.93</v>
       </c>
     </row>
     <row r="12">
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>132445.7</v>
+        <v>132064.81</v>
       </c>
     </row>
     <row r="13">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>139088.16</v>
+        <v>138319.15</v>
       </c>
     </row>
     <row r="14">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>78066.94</v>
+        <v>77994.45</v>
       </c>
     </row>
     <row r="15">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>35365.85</v>
+        <v>35392.96</v>
       </c>
     </row>
     <row r="16">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>23318.14</v>
+        <v>23121.5</v>
       </c>
     </row>
     <row r="17">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>126742.21</v>
+        <v>165636.85</v>
       </c>
     </row>
     <row r="18">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>49685.63</v>
+        <v>150203.42</v>
       </c>
     </row>
     <row r="19">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5125.83</v>
+        <v>5232.83</v>
       </c>
     </row>
     <row r="20">
@@ -627,7 +627,57 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4805.92</v>
+        <v>4786.26</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Lombardi</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>29476.7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Alpha planeam equil</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>8440.059999999999</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Goal acciones plus</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>9298.15</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Ieb Value</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>4786.26</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Supefondo RV</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>690956.99</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/EDN.xlsx
+++ b/backend/src/excel_handler/files/EDN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,196 +439,254 @@
           <t>30-12-2022</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2903996.4</v>
+        <v>165636.85</v>
+      </c>
+      <c r="C2" t="n">
+        <v>197337.63</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>131999.84</v>
+        <v>220860.46</v>
+      </c>
+      <c r="C3" t="n">
+        <v>221699.36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>220860.46</v>
+        <v>128017.9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>127993.49</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>128017.9</v>
+        <v>218492.59</v>
+      </c>
+      <c r="C5" t="n">
+        <v>217335.35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>218492.59</v>
+        <v>8440.059999999999</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8468.639999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>156438.09</v>
+          <t>Argenfunds</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>19056.78</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3212.02</v>
+        <v>156438.09</v>
+      </c>
+      <c r="C8" t="n">
+        <v>156144.15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>544953.29</v>
+        <v>3212.02</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4387.69</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>155193.73</v>
+        <v>132064.81</v>
+      </c>
+      <c r="C10" t="n">
+        <v>142260.66</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1117.93</v>
+        <v>138319.15</v>
+      </c>
+      <c r="C11" t="n">
+        <v>138362.63</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>132064.81</v>
+        <v>544953.29</v>
+      </c>
+      <c r="C12" t="n">
+        <v>555525.9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>138319.15</v>
+        <v>155193.73</v>
+      </c>
+      <c r="C13" t="n">
+        <v>155940.79</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Gainvest</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>77994.45</v>
+        <v>150203.42</v>
+      </c>
+      <c r="C14" t="n">
+        <v>150378.55</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Goal</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>35392.96</v>
+        <v>5232.83</v>
+      </c>
+      <c r="C15" t="n">
+        <v>5156.3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>23121.5</v>
+        <v>9298.15</v>
+      </c>
+      <c r="C16" t="n">
+        <v>9287.01</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>165636.85</v>
+        <v>1117.93</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1034.03</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Gainvest</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>150203.42</v>
+          <t>IAM Renta Variable</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="n">
+        <v>61565.16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>IEB</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5232.83</v>
+        <v>4786.26</v>
+      </c>
+      <c r="C19" t="n">
+        <v>6575.87</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>IEB</t>
+          <t>Ieb Value</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>4786.26</v>
       </c>
+      <c r="C20" t="n">
+        <v>6575.87</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -639,45 +697,97 @@
       <c r="B21" t="n">
         <v>29476.7</v>
       </c>
+      <c r="C21" t="n">
+        <v>29486.84</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>8440.059999999999</v>
+        <v>77994.45</v>
+      </c>
+      <c r="C22" t="n">
+        <v>78133.67</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>9298.15</v>
+        <v>35392.96</v>
+      </c>
+      <c r="C23" t="n">
+        <v>34736.42</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Ieb Value</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4786.26</v>
+        <v>23121.5</v>
+      </c>
+      <c r="C24" t="n">
+        <v>23265.9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
+          <t>Rofex 20 Renta Variable</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="n">
+        <v>136656.94</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
           <t>Supefondo RV</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B26" t="n">
         <v>690956.99</v>
+      </c>
+      <c r="C26" t="n">
+        <v>691621.47</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>131999.84</v>
+      </c>
+      <c r="C27" t="n">
+        <v>127159.48</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2903996.4</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3178987.1</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/EDN.xlsx
+++ b/backend/src/excel_handler/files/EDN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,265 +439,348 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3172411.23</v>
+        <v>197337.63</v>
+      </c>
+      <c r="C2" t="n">
+        <v>196831.15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>132183.8</v>
+        <v>221699.36</v>
+      </c>
+      <c r="C3" t="n">
+        <v>196327.84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>197337.63</v>
+        <v>127993.49</v>
+      </c>
+      <c r="C4" t="n">
+        <v>128192.98</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>221699.36</v>
+        <v>217335.35</v>
+      </c>
+      <c r="C5" t="n">
+        <v>218178.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>127993.49</v>
+        <v>8468.639999999999</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8405.610000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>217335.35</v>
+        <v>19056.78</v>
+      </c>
+      <c r="C7" t="n">
+        <v>19057.86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8468.639999999999</v>
+        <v>156144.15</v>
+      </c>
+      <c r="C8" t="n">
+        <v>155761.69</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19056.78</v>
+        <v>4387.69</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4514.12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>156144.15</v>
+        <v>142260.66</v>
+      </c>
+      <c r="C10" t="n">
+        <v>141683.49</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4387.69</v>
+        <v>138362.63</v>
+      </c>
+      <c r="C11" t="n">
+        <v>138837.38</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>142260.66</v>
+        <v>555525.9</v>
+      </c>
+      <c r="C12" t="n">
+        <v>555676.76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>138362.63</v>
+        <v>155940.79</v>
+      </c>
+      <c r="C13" t="n">
+        <v>154529.9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Gainvest Renta Variable</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>555525.9</v>
+        <v>150378.55</v>
+      </c>
+      <c r="C14" t="n">
+        <v>150329.28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>155940.79</v>
+        <v>5156.3</v>
+      </c>
+      <c r="C15" t="n">
+        <v>5129.72</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Gainvest Renta Variable</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150378.55</v>
+        <v>9287.01</v>
+      </c>
+      <c r="C16" t="n">
+        <v>9324.84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5156.3</v>
+        <v>1034.03</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1067.42</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9287.01</v>
+        <v>61565.16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>64384.36</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1034.03</v>
+        <v>6575.87</v>
+      </c>
+      <c r="C19" t="n">
+        <v>6617.12</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>61565.16</v>
+        <v>29486.84</v>
+      </c>
+      <c r="C20" t="n">
+        <v>29464.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>IEB Value</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6575.87</v>
+        <v>78133.67</v>
+      </c>
+      <c r="C21" t="n">
+        <v>78148.84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29486.84</v>
+        <v>34736.42</v>
+      </c>
+      <c r="C22" t="n">
+        <v>35021.11</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>78133.67</v>
+        <v>23265.9</v>
+      </c>
+      <c r="C23" t="n">
+        <v>23466.91</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>34736.42</v>
+        <v>136656.94</v>
+      </c>
+      <c r="C24" t="n">
+        <v>136740.05</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>23265.9</v>
+        <v>691621.47</v>
+      </c>
+      <c r="C25" t="n">
+        <v>687495.29</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>136656.94</v>
+        <v>132183.8</v>
+      </c>
+      <c r="C26" t="n">
+        <v>131049.47</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>691621.47</v>
+        <v>3172411.23</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3145187.32</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/EDN.xlsx
+++ b/backend/src/excel_handler/files/EDN.xlsx
@@ -545,9 +545,7 @@
       <c r="B9" t="n">
         <v>4387.69</v>
       </c>
-      <c r="C9" t="n">
-        <v>4514.12</v>
-      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -558,9 +556,7 @@
       <c r="B10" t="n">
         <v>142260.66</v>
       </c>
-      <c r="C10" t="n">
-        <v>141683.49</v>
-      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -571,9 +567,7 @@
       <c r="B11" t="n">
         <v>138362.63</v>
       </c>
-      <c r="C11" t="n">
-        <v>138837.38</v>
-      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -584,9 +578,7 @@
       <c r="B12" t="n">
         <v>555525.9</v>
       </c>
-      <c r="C12" t="n">
-        <v>555676.76</v>
-      </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -701,9 +693,7 @@
       <c r="B21" t="n">
         <v>78133.67</v>
       </c>
-      <c r="C21" t="n">
-        <v>78148.84</v>
-      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -767,7 +757,7 @@
         <v>132183.8</v>
       </c>
       <c r="C26" t="n">
-        <v>131049.47</v>
+        <v>117175.09</v>
       </c>
     </row>
     <row r="27">
@@ -780,7 +770,7 @@
         <v>3172411.23</v>
       </c>
       <c r="C27" t="n">
-        <v>3145187.32</v>
+        <v>2226326.73</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/EDN.xlsx
+++ b/backend/src/excel_handler/files/EDN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,32 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>17-02-2023</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>24-02-2023</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>03-03-2023</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>10-03-2023</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>17-03-2023</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>23-03-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -502,40 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>197337.63</v>
+        <v>46812.72</v>
       </c>
       <c r="C2" t="n">
-        <v>196831.15</v>
+        <v>46794.47</v>
       </c>
       <c r="D2" t="n">
-        <v>196622.75</v>
+        <v>45456.38</v>
       </c>
       <c r="E2" t="n">
-        <v>196889.67</v>
+        <v>47003.38</v>
       </c>
       <c r="F2" t="n">
-        <v>196327.68</v>
+        <v>47028.29</v>
       </c>
       <c r="G2" t="n">
-        <v>197238.17</v>
-      </c>
-      <c r="H2" t="n">
-        <v>197459.53</v>
-      </c>
-      <c r="I2" t="n">
-        <v>197360.66</v>
-      </c>
-      <c r="J2" t="n">
-        <v>151723.7</v>
-      </c>
-      <c r="K2" t="n">
-        <v>151297.83</v>
-      </c>
-      <c r="L2" t="n">
-        <v>46790.47</v>
-      </c>
-      <c r="M2" t="n">
-        <v>46812.72</v>
+        <v>46702.21</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>221699.36</v>
+        <v>195378.78</v>
       </c>
       <c r="C3" t="n">
-        <v>196327.84</v>
+        <v>195743.43</v>
       </c>
       <c r="D3" t="n">
-        <v>195530.65</v>
+        <v>190979.46</v>
       </c>
       <c r="E3" t="n">
-        <v>195173.65</v>
+        <v>196791.66</v>
       </c>
       <c r="F3" t="n">
-        <v>195542.25</v>
+        <v>196962.5</v>
       </c>
       <c r="G3" t="n">
-        <v>196109.81</v>
-      </c>
-      <c r="H3" t="n">
-        <v>195419.22</v>
-      </c>
-      <c r="I3" t="n">
-        <v>196360.91</v>
-      </c>
-      <c r="J3" t="n">
-        <v>195042.19</v>
-      </c>
-      <c r="K3" t="n">
-        <v>195047.2</v>
-      </c>
-      <c r="L3" t="n">
-        <v>196633.22</v>
-      </c>
-      <c r="M3" t="n">
-        <v>195378.78</v>
+        <v>229052.92</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>127993.49</v>
+        <v>127533.67</v>
       </c>
       <c r="C4" t="n">
-        <v>128192.98</v>
+        <v>128123.84</v>
       </c>
       <c r="D4" t="n">
-        <v>128257.75</v>
+        <v>124288.31</v>
       </c>
       <c r="E4" t="n">
-        <v>127516.24</v>
+        <v>127560.98</v>
       </c>
       <c r="F4" t="n">
-        <v>127580.21</v>
+        <v>128435.38</v>
       </c>
       <c r="G4" t="n">
-        <v>128583.05</v>
-      </c>
-      <c r="H4" t="n">
-        <v>128541.64</v>
-      </c>
-      <c r="I4" t="n">
-        <v>128045.05</v>
-      </c>
-      <c r="J4" t="n">
-        <v>128251.7</v>
-      </c>
-      <c r="K4" t="n">
-        <v>127525.52</v>
-      </c>
-      <c r="L4" t="n">
-        <v>128583.97</v>
-      </c>
-      <c r="M4" t="n">
-        <v>127533.67</v>
+        <v>128615.32</v>
       </c>
     </row>
     <row r="5">
@@ -631,40 +547,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>217335.35</v>
+        <v>216886.15</v>
       </c>
       <c r="C5" t="n">
-        <v>218178.8</v>
+        <v>217882.97</v>
       </c>
       <c r="D5" t="n">
-        <v>219119.05</v>
+        <v>212027.02</v>
       </c>
       <c r="E5" t="n">
-        <v>218505</v>
+        <v>216987.23</v>
       </c>
       <c r="F5" t="n">
-        <v>216817.15</v>
+        <v>216917.94</v>
       </c>
       <c r="G5" t="n">
-        <v>218714.01</v>
-      </c>
-      <c r="H5" t="n">
-        <v>218349.55</v>
-      </c>
-      <c r="I5" t="n">
-        <v>217323.52</v>
-      </c>
-      <c r="J5" t="n">
-        <v>217401.82</v>
-      </c>
-      <c r="K5" t="n">
-        <v>217098.82</v>
-      </c>
-      <c r="L5" t="n">
-        <v>218661.3</v>
-      </c>
-      <c r="M5" t="n">
-        <v>216886.15</v>
+        <v>218712.12</v>
       </c>
     </row>
     <row r="6">
@@ -674,40 +572,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8468.639999999999</v>
+        <v>8338.969999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>8405.610000000001</v>
+        <v>8468.219999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>8388.25</v>
+        <v>8274.299999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>8382.969999999999</v>
+        <v>8450.33</v>
       </c>
       <c r="F6" t="n">
-        <v>8379.08</v>
+        <v>8417.16</v>
       </c>
       <c r="G6" t="n">
-        <v>8420.959999999999</v>
-      </c>
-      <c r="H6" t="n">
-        <v>8452.219999999999</v>
-      </c>
-      <c r="I6" t="n">
-        <v>8409.83</v>
-      </c>
-      <c r="J6" t="n">
-        <v>8382.139999999999</v>
-      </c>
-      <c r="K6" t="n">
-        <v>8349.4</v>
-      </c>
-      <c r="L6" t="n">
-        <v>8470.290000000001</v>
-      </c>
-      <c r="M6" t="n">
-        <v>8338.969999999999</v>
+        <v>8397.110000000001</v>
       </c>
     </row>
     <row r="7">
@@ -717,40 +597,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19056.78</v>
+        <v>2285.55</v>
       </c>
       <c r="C7" t="n">
-        <v>19057.86</v>
+        <v>2278.52</v>
       </c>
       <c r="D7" t="n">
-        <v>19041.74</v>
+        <v>2218.53</v>
       </c>
       <c r="E7" t="n">
-        <v>18980.26</v>
+        <v>2274.95</v>
       </c>
       <c r="F7" t="n">
-        <v>19032.27</v>
+        <v>2281.1</v>
       </c>
       <c r="G7" t="n">
-        <v>19070.65</v>
-      </c>
-      <c r="H7" t="n">
-        <v>19107.34</v>
-      </c>
-      <c r="I7" t="n">
-        <v>19079.16</v>
-      </c>
-      <c r="J7" t="n">
-        <v>19020.16</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2273.66</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2281.55</v>
-      </c>
-      <c r="M7" t="n">
-        <v>2285.55</v>
+        <v>2285.9</v>
       </c>
     </row>
     <row r="8">
@@ -760,40 +622,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>156144.15</v>
+        <v>156306.5</v>
       </c>
       <c r="C8" t="n">
-        <v>155761.69</v>
+        <v>155689.42</v>
       </c>
       <c r="D8" t="n">
-        <v>154965.87</v>
+        <v>153836.02</v>
       </c>
       <c r="E8" t="n">
-        <v>155453.09</v>
+        <v>158574.2</v>
       </c>
       <c r="F8" t="n">
-        <v>155992.71</v>
+        <v>158869.49</v>
       </c>
       <c r="G8" t="n">
-        <v>156474.29</v>
-      </c>
-      <c r="H8" t="n">
-        <v>154957.28</v>
-      </c>
-      <c r="I8" t="n">
-        <v>156653.77</v>
-      </c>
-      <c r="J8" t="n">
-        <v>155208.66</v>
-      </c>
-      <c r="K8" t="n">
-        <v>155161.67</v>
-      </c>
-      <c r="L8" t="n">
-        <v>155896.72</v>
-      </c>
-      <c r="M8" t="n">
-        <v>156306.5</v>
+        <v>157598.67</v>
       </c>
     </row>
     <row r="9">
@@ -803,38 +647,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4387.69</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
+        <v>4706.65</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4729.58</v>
+      </c>
       <c r="D9" t="n">
-        <v>3302.13</v>
+        <v>3185.07</v>
       </c>
       <c r="E9" t="n">
-        <v>4536.06</v>
+        <v>4371.92</v>
       </c>
       <c r="F9" t="n">
-        <v>3270.71</v>
+        <v>4726.04</v>
       </c>
       <c r="G9" t="n">
-        <v>3251.74</v>
-      </c>
-      <c r="H9" t="n">
-        <v>4596.14</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4746.6</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4771.96</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3299.39</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3376.19</v>
-      </c>
-      <c r="M9" t="n">
-        <v>4706.65</v>
+        <v>4645.77</v>
       </c>
     </row>
     <row r="10">
@@ -844,38 +672,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>142260.66</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
+        <v>130253.53</v>
+      </c>
+      <c r="C10" t="n">
+        <v>130197.87</v>
+      </c>
       <c r="D10" t="n">
-        <v>140939.81</v>
+        <v>127086.09</v>
       </c>
       <c r="E10" t="n">
-        <v>147517.95</v>
+        <v>129895.45</v>
       </c>
       <c r="F10" t="n">
-        <v>160874.8</v>
+        <v>129483.32</v>
       </c>
       <c r="G10" t="n">
-        <v>159268.31</v>
-      </c>
-      <c r="H10" t="n">
-        <v>160159.02</v>
-      </c>
-      <c r="I10" t="n">
-        <v>159905.02</v>
-      </c>
-      <c r="J10" t="n">
-        <v>142878.29</v>
-      </c>
-      <c r="K10" t="n">
-        <v>130503.71</v>
-      </c>
-      <c r="L10" t="n">
-        <v>130861.24</v>
-      </c>
-      <c r="M10" t="n">
-        <v>130253.53</v>
+        <v>129260.36</v>
       </c>
     </row>
     <row r="11">
@@ -885,38 +697,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>138362.63</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
+        <v>120433.08</v>
+      </c>
+      <c r="C11" t="n">
+        <v>120666.1</v>
+      </c>
       <c r="D11" t="n">
-        <v>144460.37</v>
+        <v>116814.72</v>
       </c>
       <c r="E11" t="n">
-        <v>145193.97</v>
+        <v>120532.9</v>
       </c>
       <c r="F11" t="n">
-        <v>144895.86</v>
+        <v>120075.15</v>
       </c>
       <c r="G11" t="n">
-        <v>144385.06</v>
-      </c>
-      <c r="H11" t="n">
-        <v>144602.24</v>
-      </c>
-      <c r="I11" t="n">
-        <v>144874.91</v>
-      </c>
-      <c r="J11" t="n">
-        <v>133332.36</v>
-      </c>
-      <c r="K11" t="n">
-        <v>119921.41</v>
-      </c>
-      <c r="L11" t="n">
-        <v>119907.64</v>
-      </c>
-      <c r="M11" t="n">
-        <v>120433.08</v>
+        <v>121026.15</v>
       </c>
     </row>
     <row r="12">
@@ -926,38 +722,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>555525.9</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
+        <v>544572</v>
+      </c>
+      <c r="C12" t="n">
+        <v>543912.88</v>
+      </c>
       <c r="D12" t="n">
-        <v>515820.62</v>
+        <v>531255.73</v>
       </c>
       <c r="E12" t="n">
-        <v>565787.85</v>
+        <v>545345.02</v>
       </c>
       <c r="F12" t="n">
-        <v>561989.3</v>
+        <v>560615.76</v>
       </c>
       <c r="G12" t="n">
-        <v>566895.1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>565953.63</v>
-      </c>
-      <c r="I12" t="n">
-        <v>568438.04</v>
-      </c>
-      <c r="J12" t="n">
-        <v>567920.39</v>
-      </c>
-      <c r="K12" t="n">
-        <v>565770.05</v>
-      </c>
-      <c r="L12" t="n">
-        <v>556405.55</v>
-      </c>
-      <c r="M12" t="n">
-        <v>544572</v>
+        <v>577334.41</v>
       </c>
     </row>
     <row r="13">
@@ -967,40 +747,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>155940.79</v>
+        <v>155896.67</v>
       </c>
       <c r="C13" t="n">
-        <v>154529.9</v>
+        <v>155880.07</v>
       </c>
       <c r="D13" t="n">
-        <v>155688.48</v>
+        <v>150812.77</v>
       </c>
       <c r="E13" t="n">
-        <v>154753.65</v>
+        <v>155036.29</v>
       </c>
       <c r="F13" t="n">
-        <v>154739.88</v>
+        <v>155415.65</v>
       </c>
       <c r="G13" t="n">
-        <v>156255.5</v>
-      </c>
-      <c r="H13" t="n">
-        <v>156361.59</v>
-      </c>
-      <c r="I13" t="n">
-        <v>154626.71</v>
-      </c>
-      <c r="J13" t="n">
-        <v>154319.33</v>
-      </c>
-      <c r="K13" t="n">
-        <v>154566.38</v>
-      </c>
-      <c r="L13" t="n">
-        <v>155577.83</v>
-      </c>
-      <c r="M13" t="n">
-        <v>155896.67</v>
+        <v>151864.26</v>
       </c>
     </row>
     <row r="14">
@@ -1010,40 +772,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>150378.55</v>
+        <v>150235.27</v>
       </c>
       <c r="C14" t="n">
-        <v>150329.28</v>
+        <v>150034.75</v>
       </c>
       <c r="D14" t="n">
-        <v>150293.78</v>
+        <v>145982.12</v>
       </c>
       <c r="E14" t="n">
-        <v>149925.73</v>
+        <v>150161.6</v>
       </c>
       <c r="F14" t="n">
-        <v>149824.79</v>
+        <v>149817.45</v>
       </c>
       <c r="G14" t="n">
-        <v>149725.75</v>
-      </c>
-      <c r="H14" t="n">
-        <v>149869.5</v>
-      </c>
-      <c r="I14" t="n">
-        <v>149719.87</v>
-      </c>
-      <c r="J14" t="n">
-        <v>149984.49</v>
-      </c>
-      <c r="K14" t="n">
-        <v>150176.13</v>
-      </c>
-      <c r="L14" t="n">
-        <v>149823.94</v>
-      </c>
-      <c r="M14" t="n">
-        <v>150235.27</v>
+        <v>150152.82</v>
       </c>
     </row>
     <row r="15">
@@ -1053,40 +797,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5156.3</v>
+        <v>5189.38</v>
       </c>
       <c r="C15" t="n">
-        <v>5129.72</v>
+        <v>5045.32</v>
       </c>
       <c r="D15" t="n">
-        <v>5126.18</v>
+        <v>4803.08</v>
       </c>
       <c r="E15" t="n">
-        <v>5087.79</v>
+        <v>5120.13</v>
       </c>
       <c r="F15" t="n">
-        <v>5158.28</v>
+        <v>5226</v>
       </c>
       <c r="G15" t="n">
-        <v>5150.42</v>
-      </c>
-      <c r="H15" t="n">
-        <v>5069.72</v>
-      </c>
-      <c r="I15" t="n">
-        <v>4989.4</v>
-      </c>
-      <c r="J15" t="n">
-        <v>4950.5</v>
-      </c>
-      <c r="K15" t="n">
-        <v>5054.21</v>
-      </c>
-      <c r="L15" t="n">
-        <v>4999.73</v>
-      </c>
-      <c r="M15" t="n">
-        <v>5189.38</v>
+        <v>4961.56</v>
       </c>
     </row>
     <row r="16">
@@ -1096,40 +822,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9287.01</v>
+        <v>9336.040000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>9324.84</v>
+        <v>9332.08</v>
       </c>
       <c r="D16" t="n">
-        <v>9284.43</v>
+        <v>9017.77</v>
       </c>
       <c r="E16" t="n">
-        <v>9334.33</v>
+        <v>9273.26</v>
       </c>
       <c r="F16" t="n">
-        <v>9290.719999999999</v>
+        <v>9291.360000000001</v>
       </c>
       <c r="G16" t="n">
-        <v>9323.620000000001</v>
-      </c>
-      <c r="H16" t="n">
-        <v>9322.43</v>
-      </c>
-      <c r="I16" t="n">
-        <v>9338.58</v>
-      </c>
-      <c r="J16" t="n">
-        <v>9289.49</v>
-      </c>
-      <c r="K16" t="n">
-        <v>9340.18</v>
-      </c>
-      <c r="L16" t="n">
-        <v>9285.66</v>
-      </c>
-      <c r="M16" t="n">
-        <v>9336.040000000001</v>
+        <v>9323.959999999999</v>
       </c>
     </row>
     <row r="17">
@@ -1139,40 +847,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1034.03</v>
+        <v>1606.58</v>
       </c>
       <c r="C17" t="n">
-        <v>1067.42</v>
+        <v>1579.24</v>
       </c>
       <c r="D17" t="n">
-        <v>1176.89</v>
+        <v>1608.75</v>
       </c>
       <c r="E17" t="n">
-        <v>1059.92</v>
+        <v>1508.12</v>
       </c>
       <c r="F17" t="n">
-        <v>1122.16</v>
+        <v>1590.23</v>
       </c>
       <c r="G17" t="n">
-        <v>1083.07</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1026.38</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1901.62</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1849.94</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1848.77</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1742.1</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1606.58</v>
+        <v>1515.21</v>
       </c>
     </row>
     <row r="18">
@@ -1182,40 +872,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>61565.16</v>
+        <v>89368.39</v>
       </c>
       <c r="C18" t="n">
-        <v>64384.36</v>
+        <v>89113.84</v>
       </c>
       <c r="D18" t="n">
-        <v>82576.34</v>
+        <v>84220.86</v>
       </c>
       <c r="E18" t="n">
-        <v>86553.49000000001</v>
+        <v>85661</v>
       </c>
       <c r="F18" t="n">
-        <v>85854.67999999999</v>
+        <v>87448.94</v>
       </c>
       <c r="G18" t="n">
-        <v>86002.25999999999</v>
-      </c>
-      <c r="H18" t="n">
-        <v>101956.23</v>
-      </c>
-      <c r="I18" t="n">
-        <v>102204.28</v>
-      </c>
-      <c r="J18" t="n">
-        <v>102099.98</v>
-      </c>
-      <c r="K18" t="n">
-        <v>102020.68</v>
-      </c>
-      <c r="L18" t="n">
-        <v>101343.11</v>
-      </c>
-      <c r="M18" t="n">
-        <v>89368.39</v>
+        <v>92771.24000000001</v>
       </c>
     </row>
     <row r="19">
@@ -1225,40 +897,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6575.87</v>
+        <v>7519.15</v>
       </c>
       <c r="C19" t="n">
-        <v>6617.12</v>
+        <v>7374.83</v>
       </c>
       <c r="D19" t="n">
-        <v>7515.05</v>
+        <v>7150.88</v>
       </c>
       <c r="E19" t="n">
-        <v>7523.59</v>
+        <v>7350.78</v>
       </c>
       <c r="F19" t="n">
-        <v>7497.68</v>
+        <v>7371.42</v>
       </c>
       <c r="G19" t="n">
-        <v>7484.13</v>
-      </c>
-      <c r="H19" t="n">
-        <v>7499.49</v>
-      </c>
-      <c r="I19" t="n">
-        <v>7494.03</v>
-      </c>
-      <c r="J19" t="n">
-        <v>7481.59</v>
-      </c>
-      <c r="K19" t="n">
-        <v>7482.02</v>
-      </c>
-      <c r="L19" t="n">
-        <v>7508.14</v>
-      </c>
-      <c r="M19" t="n">
-        <v>7519.15</v>
+        <v>7363.92</v>
       </c>
     </row>
     <row r="20">
@@ -1268,40 +922,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29486.84</v>
+        <v>11494.17</v>
       </c>
       <c r="C20" t="n">
-        <v>29464.8</v>
+        <v>11781.11</v>
       </c>
       <c r="D20" t="n">
-        <v>29550.86</v>
+        <v>11314.37</v>
       </c>
       <c r="E20" t="n">
-        <v>29767.99</v>
+        <v>11700.33</v>
       </c>
       <c r="F20" t="n">
-        <v>23552.5</v>
+        <v>11511.87</v>
       </c>
       <c r="G20" t="n">
-        <v>23737.25</v>
-      </c>
-      <c r="H20" t="n">
-        <v>23820.82</v>
-      </c>
-      <c r="I20" t="n">
-        <v>23598.72</v>
-      </c>
-      <c r="J20" t="n">
-        <v>11655.01</v>
-      </c>
-      <c r="K20" t="n">
-        <v>11827.11</v>
-      </c>
-      <c r="L20" t="n">
-        <v>11695.07</v>
-      </c>
-      <c r="M20" t="n">
-        <v>11494.17</v>
+        <v>11695.12</v>
       </c>
     </row>
     <row r="21">
@@ -1311,38 +947,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>78133.67</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
+        <v>78046.99000000001</v>
+      </c>
+      <c r="C21" t="n">
+        <v>77768.64999999999</v>
+      </c>
       <c r="D21" t="n">
-        <v>78564.17</v>
+        <v>76397.61</v>
       </c>
       <c r="E21" t="n">
-        <v>78142.38</v>
+        <v>77913.53</v>
       </c>
       <c r="F21" t="n">
-        <v>78122.42</v>
+        <v>78375.64999999999</v>
       </c>
       <c r="G21" t="n">
-        <v>77687.67</v>
-      </c>
-      <c r="H21" t="n">
-        <v>77932.28999999999</v>
-      </c>
-      <c r="I21" t="n">
-        <v>78340.53</v>
-      </c>
-      <c r="J21" t="n">
-        <v>77835.47</v>
-      </c>
-      <c r="K21" t="n">
-        <v>77863.92</v>
-      </c>
-      <c r="L21" t="n">
-        <v>78353.78</v>
-      </c>
-      <c r="M21" t="n">
-        <v>78046.99000000001</v>
+        <v>78196.89999999999</v>
       </c>
     </row>
     <row r="22">
@@ -1352,40 +972,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>34736.42</v>
+        <v>34186.11</v>
       </c>
       <c r="C22" t="n">
-        <v>35021.11</v>
+        <v>35540.15</v>
       </c>
       <c r="D22" t="n">
-        <v>35064.67</v>
+        <v>34423</v>
       </c>
       <c r="E22" t="n">
-        <v>34700.39</v>
+        <v>34665.29</v>
       </c>
       <c r="F22" t="n">
-        <v>34770.81</v>
+        <v>34419.28</v>
       </c>
       <c r="G22" t="n">
-        <v>35230.64</v>
-      </c>
-      <c r="H22" t="n">
-        <v>34699.61</v>
-      </c>
-      <c r="I22" t="n">
-        <v>34686.97</v>
-      </c>
-      <c r="J22" t="n">
-        <v>34889.34</v>
-      </c>
-      <c r="K22" t="n">
-        <v>34839.16</v>
-      </c>
-      <c r="L22" t="n">
-        <v>35058.9</v>
-      </c>
-      <c r="M22" t="n">
-        <v>34186.11</v>
+        <v>34423.52</v>
       </c>
     </row>
     <row r="23">
@@ -1395,40 +997,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>23265.9</v>
+        <v>23294.44</v>
       </c>
       <c r="C23" t="n">
-        <v>23466.91</v>
+        <v>23358.86</v>
       </c>
       <c r="D23" t="n">
-        <v>23173.55</v>
+        <v>22467.14</v>
       </c>
       <c r="E23" t="n">
-        <v>23331.44</v>
+        <v>23242.69</v>
       </c>
       <c r="F23" t="n">
-        <v>23422.28</v>
+        <v>23432.38</v>
       </c>
       <c r="G23" t="n">
-        <v>23264.37</v>
-      </c>
-      <c r="H23" t="n">
-        <v>23187.01</v>
-      </c>
-      <c r="I23" t="n">
-        <v>23246.49</v>
-      </c>
-      <c r="J23" t="n">
-        <v>23457.94</v>
-      </c>
-      <c r="K23" t="n">
-        <v>23178.72</v>
-      </c>
-      <c r="L23" t="n">
-        <v>23345.59</v>
-      </c>
-      <c r="M23" t="n">
-        <v>23294.44</v>
+        <v>37457.62</v>
       </c>
     </row>
     <row r="24">
@@ -1438,151 +1022,72 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>136656.94</v>
+        <v>134251.64</v>
       </c>
       <c r="C24" t="n">
-        <v>136740.05</v>
+        <v>128131.69</v>
       </c>
       <c r="D24" t="n">
-        <v>128943.92</v>
+        <v>124469.95</v>
       </c>
       <c r="E24" t="n">
-        <v>127051.11</v>
+        <v>129396.16</v>
       </c>
       <c r="F24" t="n">
-        <v>136293.64</v>
+        <v>128112.97</v>
       </c>
       <c r="G24" t="n">
-        <v>137680.47</v>
-      </c>
-      <c r="H24" t="n">
-        <v>137667.53</v>
-      </c>
-      <c r="I24" t="n">
-        <v>137917.67</v>
-      </c>
-      <c r="J24" t="n">
-        <v>137824.68</v>
-      </c>
-      <c r="K24" t="n">
-        <v>138260.61</v>
-      </c>
-      <c r="L24" t="n">
-        <v>138175.71</v>
-      </c>
-      <c r="M24" t="n">
-        <v>134251.64</v>
+        <v>137837.88</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>691621.47</v>
+        <v>97997.06</v>
       </c>
       <c r="C25" t="n">
-        <v>687495.29</v>
+        <v>97801.21000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>687784.23</v>
-      </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
+        <v>95134.34</v>
+      </c>
+      <c r="E25" t="n">
+        <v>97774.66</v>
+      </c>
+      <c r="F25" t="n">
+        <v>98514.14</v>
+      </c>
+      <c r="G25" t="n">
+        <v>101791.08</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>132183.8</v>
+        <v>2253932.43</v>
       </c>
       <c r="C26" t="n">
-        <v>117175.09</v>
+        <v>2249427.89</v>
       </c>
       <c r="D26" t="n">
-        <v>130049.65</v>
+        <v>2188089.93</v>
       </c>
       <c r="E26" t="n">
-        <v>108311.67</v>
+        <v>2248817.2</v>
       </c>
       <c r="F26" t="n">
-        <v>108710.95</v>
+        <v>2265825.33</v>
       </c>
       <c r="G26" t="n">
-        <v>109175.49</v>
-      </c>
-      <c r="H26" t="n">
-        <v>109826.54</v>
-      </c>
-      <c r="I26" t="n">
-        <v>109967.93</v>
-      </c>
-      <c r="J26" t="n">
-        <v>106068.31</v>
-      </c>
-      <c r="K26" t="n">
-        <v>104030.72</v>
-      </c>
-      <c r="L26" t="n">
-        <v>99338.16</v>
-      </c>
-      <c r="M26" t="n">
-        <v>97997.06</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>3172411.23</v>
-      </c>
-      <c r="C27" t="n">
-        <v>2226326.73</v>
-      </c>
-      <c r="D27" t="n">
-        <v>3121191.54</v>
-      </c>
-      <c r="E27" t="n">
-        <v>2491168.52</v>
-      </c>
-      <c r="F27" t="n">
-        <v>2500351.86</v>
-      </c>
-      <c r="G27" t="n">
-        <v>2511036.3</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2526010.41</v>
-      </c>
-      <c r="I27" t="n">
-        <v>2529262.34</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2439571.13</v>
-      </c>
-      <c r="K27" t="n">
-        <v>2392706.55</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2284777.7</v>
-      </c>
-      <c r="M27" t="n">
-        <v>2253932.43</v>
+        <v>2341194.95</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/EDN.xlsx
+++ b/backend/src/excel_handler/files/EDN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,32 +436,62 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>23-03-2023</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>31-03-2023</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>05-04-2023</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>14-04-2023</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>21-04-2023</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -472,22 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>197337.63</v>
+      </c>
+      <c r="C2" t="n">
+        <v>196831.15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>196622.75</v>
+      </c>
+      <c r="E2" t="n">
+        <v>196889.67</v>
+      </c>
+      <c r="F2" t="n">
+        <v>196327.68</v>
+      </c>
+      <c r="G2" t="n">
+        <v>197238.17</v>
+      </c>
+      <c r="H2" t="n">
+        <v>197459.53</v>
+      </c>
+      <c r="I2" t="n">
+        <v>197360.66</v>
+      </c>
+      <c r="J2" t="n">
+        <v>151723.7</v>
+      </c>
+      <c r="K2" t="n">
+        <v>151297.83</v>
+      </c>
+      <c r="L2" t="n">
+        <v>46790.47</v>
+      </c>
+      <c r="M2" t="n">
         <v>46812.72</v>
-      </c>
-      <c r="C2" t="n">
-        <v>46794.47</v>
-      </c>
-      <c r="D2" t="n">
-        <v>45456.38</v>
-      </c>
-      <c r="E2" t="n">
-        <v>47003.38</v>
-      </c>
-      <c r="F2" t="n">
-        <v>47028.29</v>
-      </c>
-      <c r="G2" t="n">
-        <v>46702.21</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +545,40 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>221699.36</v>
+      </c>
+      <c r="C3" t="n">
+        <v>196327.84</v>
+      </c>
+      <c r="D3" t="n">
+        <v>195530.65</v>
+      </c>
+      <c r="E3" t="n">
+        <v>195173.65</v>
+      </c>
+      <c r="F3" t="n">
+        <v>195542.25</v>
+      </c>
+      <c r="G3" t="n">
+        <v>196109.81</v>
+      </c>
+      <c r="H3" t="n">
+        <v>195419.22</v>
+      </c>
+      <c r="I3" t="n">
+        <v>196360.91</v>
+      </c>
+      <c r="J3" t="n">
+        <v>195042.19</v>
+      </c>
+      <c r="K3" t="n">
+        <v>195047.2</v>
+      </c>
+      <c r="L3" t="n">
+        <v>196633.22</v>
+      </c>
+      <c r="M3" t="n">
         <v>195378.78</v>
-      </c>
-      <c r="C3" t="n">
-        <v>195743.43</v>
-      </c>
-      <c r="D3" t="n">
-        <v>190979.46</v>
-      </c>
-      <c r="E3" t="n">
-        <v>196791.66</v>
-      </c>
-      <c r="F3" t="n">
-        <v>196962.5</v>
-      </c>
-      <c r="G3" t="n">
-        <v>229052.92</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +588,40 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>127993.49</v>
+      </c>
+      <c r="C4" t="n">
+        <v>128192.98</v>
+      </c>
+      <c r="D4" t="n">
+        <v>128257.75</v>
+      </c>
+      <c r="E4" t="n">
+        <v>127516.24</v>
+      </c>
+      <c r="F4" t="n">
+        <v>127580.21</v>
+      </c>
+      <c r="G4" t="n">
+        <v>128583.05</v>
+      </c>
+      <c r="H4" t="n">
+        <v>128541.64</v>
+      </c>
+      <c r="I4" t="n">
+        <v>128045.05</v>
+      </c>
+      <c r="J4" t="n">
+        <v>128251.7</v>
+      </c>
+      <c r="K4" t="n">
+        <v>127525.52</v>
+      </c>
+      <c r="L4" t="n">
+        <v>128583.97</v>
+      </c>
+      <c r="M4" t="n">
         <v>127533.67</v>
-      </c>
-      <c r="C4" t="n">
-        <v>128123.84</v>
-      </c>
-      <c r="D4" t="n">
-        <v>124288.31</v>
-      </c>
-      <c r="E4" t="n">
-        <v>127560.98</v>
-      </c>
-      <c r="F4" t="n">
-        <v>128435.38</v>
-      </c>
-      <c r="G4" t="n">
-        <v>128615.32</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +631,40 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>217335.35</v>
+      </c>
+      <c r="C5" t="n">
+        <v>218178.8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>219119.05</v>
+      </c>
+      <c r="E5" t="n">
+        <v>218505</v>
+      </c>
+      <c r="F5" t="n">
+        <v>216817.15</v>
+      </c>
+      <c r="G5" t="n">
+        <v>218714.01</v>
+      </c>
+      <c r="H5" t="n">
+        <v>218349.55</v>
+      </c>
+      <c r="I5" t="n">
+        <v>217323.52</v>
+      </c>
+      <c r="J5" t="n">
+        <v>217401.82</v>
+      </c>
+      <c r="K5" t="n">
+        <v>217098.82</v>
+      </c>
+      <c r="L5" t="n">
+        <v>218661.3</v>
+      </c>
+      <c r="M5" t="n">
         <v>216886.15</v>
-      </c>
-      <c r="C5" t="n">
-        <v>217882.97</v>
-      </c>
-      <c r="D5" t="n">
-        <v>212027.02</v>
-      </c>
-      <c r="E5" t="n">
-        <v>216987.23</v>
-      </c>
-      <c r="F5" t="n">
-        <v>216917.94</v>
-      </c>
-      <c r="G5" t="n">
-        <v>218712.12</v>
       </c>
     </row>
     <row r="6">
@@ -572,22 +674,40 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>8468.639999999999</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8405.610000000001</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8388.25</v>
+      </c>
+      <c r="E6" t="n">
+        <v>8382.969999999999</v>
+      </c>
+      <c r="F6" t="n">
+        <v>8379.08</v>
+      </c>
+      <c r="G6" t="n">
+        <v>8420.959999999999</v>
+      </c>
+      <c r="H6" t="n">
+        <v>8452.219999999999</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8409.83</v>
+      </c>
+      <c r="J6" t="n">
+        <v>8382.139999999999</v>
+      </c>
+      <c r="K6" t="n">
+        <v>8349.4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>8470.290000000001</v>
+      </c>
+      <c r="M6" t="n">
         <v>8338.969999999999</v>
-      </c>
-      <c r="C6" t="n">
-        <v>8468.219999999999</v>
-      </c>
-      <c r="D6" t="n">
-        <v>8274.299999999999</v>
-      </c>
-      <c r="E6" t="n">
-        <v>8450.33</v>
-      </c>
-      <c r="F6" t="n">
-        <v>8417.16</v>
-      </c>
-      <c r="G6" t="n">
-        <v>8397.110000000001</v>
       </c>
     </row>
     <row r="7">
@@ -597,22 +717,40 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>19056.78</v>
+      </c>
+      <c r="C7" t="n">
+        <v>19057.86</v>
+      </c>
+      <c r="D7" t="n">
+        <v>19041.74</v>
+      </c>
+      <c r="E7" t="n">
+        <v>18980.26</v>
+      </c>
+      <c r="F7" t="n">
+        <v>19032.27</v>
+      </c>
+      <c r="G7" t="n">
+        <v>19070.65</v>
+      </c>
+      <c r="H7" t="n">
+        <v>19107.34</v>
+      </c>
+      <c r="I7" t="n">
+        <v>19079.16</v>
+      </c>
+      <c r="J7" t="n">
+        <v>19020.16</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2273.66</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2281.55</v>
+      </c>
+      <c r="M7" t="n">
         <v>2285.55</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2278.52</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2218.53</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2274.95</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2281.1</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2285.9</v>
       </c>
     </row>
     <row r="8">
@@ -622,22 +760,40 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>156144.15</v>
+      </c>
+      <c r="C8" t="n">
+        <v>155761.69</v>
+      </c>
+      <c r="D8" t="n">
+        <v>154965.87</v>
+      </c>
+      <c r="E8" t="n">
+        <v>155453.09</v>
+      </c>
+      <c r="F8" t="n">
+        <v>155992.71</v>
+      </c>
+      <c r="G8" t="n">
+        <v>156474.29</v>
+      </c>
+      <c r="H8" t="n">
+        <v>154957.28</v>
+      </c>
+      <c r="I8" t="n">
+        <v>156653.77</v>
+      </c>
+      <c r="J8" t="n">
+        <v>155208.66</v>
+      </c>
+      <c r="K8" t="n">
+        <v>155161.67</v>
+      </c>
+      <c r="L8" t="n">
+        <v>155896.72</v>
+      </c>
+      <c r="M8" t="n">
         <v>156306.5</v>
-      </c>
-      <c r="C8" t="n">
-        <v>155689.42</v>
-      </c>
-      <c r="D8" t="n">
-        <v>153836.02</v>
-      </c>
-      <c r="E8" t="n">
-        <v>158574.2</v>
-      </c>
-      <c r="F8" t="n">
-        <v>158869.49</v>
-      </c>
-      <c r="G8" t="n">
-        <v>157598.67</v>
       </c>
     </row>
     <row r="9">
@@ -647,22 +803,38 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>4387.69</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>3302.13</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4536.06</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3270.71</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3251.74</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4596.14</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4746.6</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4771.96</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3299.39</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3376.19</v>
+      </c>
+      <c r="M9" t="n">
         <v>4706.65</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4729.58</v>
-      </c>
-      <c r="D9" t="n">
-        <v>3185.07</v>
-      </c>
-      <c r="E9" t="n">
-        <v>4371.92</v>
-      </c>
-      <c r="F9" t="n">
-        <v>4726.04</v>
-      </c>
-      <c r="G9" t="n">
-        <v>4645.77</v>
       </c>
     </row>
     <row r="10">
@@ -672,22 +844,38 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>142260.66</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>140939.81</v>
+      </c>
+      <c r="E10" t="n">
+        <v>147517.95</v>
+      </c>
+      <c r="F10" t="n">
+        <v>160874.8</v>
+      </c>
+      <c r="G10" t="n">
+        <v>159268.31</v>
+      </c>
+      <c r="H10" t="n">
+        <v>160159.02</v>
+      </c>
+      <c r="I10" t="n">
+        <v>159905.02</v>
+      </c>
+      <c r="J10" t="n">
+        <v>142878.29</v>
+      </c>
+      <c r="K10" t="n">
+        <v>130503.71</v>
+      </c>
+      <c r="L10" t="n">
+        <v>130861.24</v>
+      </c>
+      <c r="M10" t="n">
         <v>130253.53</v>
-      </c>
-      <c r="C10" t="n">
-        <v>130197.87</v>
-      </c>
-      <c r="D10" t="n">
-        <v>127086.09</v>
-      </c>
-      <c r="E10" t="n">
-        <v>129895.45</v>
-      </c>
-      <c r="F10" t="n">
-        <v>129483.32</v>
-      </c>
-      <c r="G10" t="n">
-        <v>129260.36</v>
       </c>
     </row>
     <row r="11">
@@ -697,22 +885,38 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>138362.63</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>144460.37</v>
+      </c>
+      <c r="E11" t="n">
+        <v>145193.97</v>
+      </c>
+      <c r="F11" t="n">
+        <v>144895.86</v>
+      </c>
+      <c r="G11" t="n">
+        <v>144385.06</v>
+      </c>
+      <c r="H11" t="n">
+        <v>144602.24</v>
+      </c>
+      <c r="I11" t="n">
+        <v>144874.91</v>
+      </c>
+      <c r="J11" t="n">
+        <v>133332.36</v>
+      </c>
+      <c r="K11" t="n">
+        <v>119921.41</v>
+      </c>
+      <c r="L11" t="n">
+        <v>119907.64</v>
+      </c>
+      <c r="M11" t="n">
         <v>120433.08</v>
-      </c>
-      <c r="C11" t="n">
-        <v>120666.1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>116814.72</v>
-      </c>
-      <c r="E11" t="n">
-        <v>120532.9</v>
-      </c>
-      <c r="F11" t="n">
-        <v>120075.15</v>
-      </c>
-      <c r="G11" t="n">
-        <v>121026.15</v>
       </c>
     </row>
     <row r="12">
@@ -722,22 +926,38 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>555525.9</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>515820.62</v>
+      </c>
+      <c r="E12" t="n">
+        <v>565787.85</v>
+      </c>
+      <c r="F12" t="n">
+        <v>561989.3</v>
+      </c>
+      <c r="G12" t="n">
+        <v>566895.1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>565953.63</v>
+      </c>
+      <c r="I12" t="n">
+        <v>568438.04</v>
+      </c>
+      <c r="J12" t="n">
+        <v>567920.39</v>
+      </c>
+      <c r="K12" t="n">
+        <v>565770.05</v>
+      </c>
+      <c r="L12" t="n">
+        <v>556405.55</v>
+      </c>
+      <c r="M12" t="n">
         <v>544572</v>
-      </c>
-      <c r="C12" t="n">
-        <v>543912.88</v>
-      </c>
-      <c r="D12" t="n">
-        <v>531255.73</v>
-      </c>
-      <c r="E12" t="n">
-        <v>545345.02</v>
-      </c>
-      <c r="F12" t="n">
-        <v>560615.76</v>
-      </c>
-      <c r="G12" t="n">
-        <v>577334.41</v>
       </c>
     </row>
     <row r="13">
@@ -747,22 +967,40 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>155940.79</v>
+      </c>
+      <c r="C13" t="n">
+        <v>154529.9</v>
+      </c>
+      <c r="D13" t="n">
+        <v>155688.48</v>
+      </c>
+      <c r="E13" t="n">
+        <v>154753.65</v>
+      </c>
+      <c r="F13" t="n">
+        <v>154739.88</v>
+      </c>
+      <c r="G13" t="n">
+        <v>156255.5</v>
+      </c>
+      <c r="H13" t="n">
+        <v>156361.59</v>
+      </c>
+      <c r="I13" t="n">
+        <v>154626.71</v>
+      </c>
+      <c r="J13" t="n">
+        <v>154319.33</v>
+      </c>
+      <c r="K13" t="n">
+        <v>154566.38</v>
+      </c>
+      <c r="L13" t="n">
+        <v>155577.83</v>
+      </c>
+      <c r="M13" t="n">
         <v>155896.67</v>
-      </c>
-      <c r="C13" t="n">
-        <v>155880.07</v>
-      </c>
-      <c r="D13" t="n">
-        <v>150812.77</v>
-      </c>
-      <c r="E13" t="n">
-        <v>155036.29</v>
-      </c>
-      <c r="F13" t="n">
-        <v>155415.65</v>
-      </c>
-      <c r="G13" t="n">
-        <v>151864.26</v>
       </c>
     </row>
     <row r="14">
@@ -772,22 +1010,40 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>150378.55</v>
+      </c>
+      <c r="C14" t="n">
+        <v>150329.28</v>
+      </c>
+      <c r="D14" t="n">
+        <v>150293.78</v>
+      </c>
+      <c r="E14" t="n">
+        <v>149925.73</v>
+      </c>
+      <c r="F14" t="n">
+        <v>149824.79</v>
+      </c>
+      <c r="G14" t="n">
+        <v>149725.75</v>
+      </c>
+      <c r="H14" t="n">
+        <v>149869.5</v>
+      </c>
+      <c r="I14" t="n">
+        <v>149719.87</v>
+      </c>
+      <c r="J14" t="n">
+        <v>149984.49</v>
+      </c>
+      <c r="K14" t="n">
+        <v>150176.13</v>
+      </c>
+      <c r="L14" t="n">
+        <v>149823.94</v>
+      </c>
+      <c r="M14" t="n">
         <v>150235.27</v>
-      </c>
-      <c r="C14" t="n">
-        <v>150034.75</v>
-      </c>
-      <c r="D14" t="n">
-        <v>145982.12</v>
-      </c>
-      <c r="E14" t="n">
-        <v>150161.6</v>
-      </c>
-      <c r="F14" t="n">
-        <v>149817.45</v>
-      </c>
-      <c r="G14" t="n">
-        <v>150152.82</v>
       </c>
     </row>
     <row r="15">
@@ -797,22 +1053,40 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>5156.3</v>
+      </c>
+      <c r="C15" t="n">
+        <v>5129.72</v>
+      </c>
+      <c r="D15" t="n">
+        <v>5126.18</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5087.79</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5158.28</v>
+      </c>
+      <c r="G15" t="n">
+        <v>5150.42</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5069.72</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4989.4</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4950.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>5054.21</v>
+      </c>
+      <c r="L15" t="n">
+        <v>4999.73</v>
+      </c>
+      <c r="M15" t="n">
         <v>5189.38</v>
-      </c>
-      <c r="C15" t="n">
-        <v>5045.32</v>
-      </c>
-      <c r="D15" t="n">
-        <v>4803.08</v>
-      </c>
-      <c r="E15" t="n">
-        <v>5120.13</v>
-      </c>
-      <c r="F15" t="n">
-        <v>5226</v>
-      </c>
-      <c r="G15" t="n">
-        <v>4961.56</v>
       </c>
     </row>
     <row r="16">
@@ -822,22 +1096,40 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>9287.01</v>
+      </c>
+      <c r="C16" t="n">
+        <v>9324.84</v>
+      </c>
+      <c r="D16" t="n">
+        <v>9284.43</v>
+      </c>
+      <c r="E16" t="n">
+        <v>9334.33</v>
+      </c>
+      <c r="F16" t="n">
+        <v>9290.719999999999</v>
+      </c>
+      <c r="G16" t="n">
+        <v>9323.620000000001</v>
+      </c>
+      <c r="H16" t="n">
+        <v>9322.43</v>
+      </c>
+      <c r="I16" t="n">
+        <v>9338.58</v>
+      </c>
+      <c r="J16" t="n">
+        <v>9289.49</v>
+      </c>
+      <c r="K16" t="n">
+        <v>9340.18</v>
+      </c>
+      <c r="L16" t="n">
+        <v>9285.66</v>
+      </c>
+      <c r="M16" t="n">
         <v>9336.040000000001</v>
-      </c>
-      <c r="C16" t="n">
-        <v>9332.08</v>
-      </c>
-      <c r="D16" t="n">
-        <v>9017.77</v>
-      </c>
-      <c r="E16" t="n">
-        <v>9273.26</v>
-      </c>
-      <c r="F16" t="n">
-        <v>9291.360000000001</v>
-      </c>
-      <c r="G16" t="n">
-        <v>9323.959999999999</v>
       </c>
     </row>
     <row r="17">
@@ -847,22 +1139,40 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>1034.03</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1067.42</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1176.89</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1059.92</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1122.16</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1083.07</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1026.38</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1901.62</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1849.94</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1848.77</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1742.1</v>
+      </c>
+      <c r="M17" t="n">
         <v>1606.58</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1579.24</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1608.75</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1508.12</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1590.23</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1515.21</v>
       </c>
     </row>
     <row r="18">
@@ -872,22 +1182,40 @@
         </is>
       </c>
       <c r="B18" t="n">
+        <v>61565.16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>64384.36</v>
+      </c>
+      <c r="D18" t="n">
+        <v>82576.34</v>
+      </c>
+      <c r="E18" t="n">
+        <v>86553.49000000001</v>
+      </c>
+      <c r="F18" t="n">
+        <v>85854.67999999999</v>
+      </c>
+      <c r="G18" t="n">
+        <v>86002.25999999999</v>
+      </c>
+      <c r="H18" t="n">
+        <v>101956.23</v>
+      </c>
+      <c r="I18" t="n">
+        <v>102204.28</v>
+      </c>
+      <c r="J18" t="n">
+        <v>102099.98</v>
+      </c>
+      <c r="K18" t="n">
+        <v>102020.68</v>
+      </c>
+      <c r="L18" t="n">
+        <v>101343.11</v>
+      </c>
+      <c r="M18" t="n">
         <v>89368.39</v>
-      </c>
-      <c r="C18" t="n">
-        <v>89113.84</v>
-      </c>
-      <c r="D18" t="n">
-        <v>84220.86</v>
-      </c>
-      <c r="E18" t="n">
-        <v>85661</v>
-      </c>
-      <c r="F18" t="n">
-        <v>87448.94</v>
-      </c>
-      <c r="G18" t="n">
-        <v>92771.24000000001</v>
       </c>
     </row>
     <row r="19">
@@ -897,22 +1225,40 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>6575.87</v>
+      </c>
+      <c r="C19" t="n">
+        <v>6617.12</v>
+      </c>
+      <c r="D19" t="n">
+        <v>7515.05</v>
+      </c>
+      <c r="E19" t="n">
+        <v>7523.59</v>
+      </c>
+      <c r="F19" t="n">
+        <v>7497.68</v>
+      </c>
+      <c r="G19" t="n">
+        <v>7484.13</v>
+      </c>
+      <c r="H19" t="n">
+        <v>7499.49</v>
+      </c>
+      <c r="I19" t="n">
+        <v>7494.03</v>
+      </c>
+      <c r="J19" t="n">
+        <v>7481.59</v>
+      </c>
+      <c r="K19" t="n">
+        <v>7482.02</v>
+      </c>
+      <c r="L19" t="n">
+        <v>7508.14</v>
+      </c>
+      <c r="M19" t="n">
         <v>7519.15</v>
-      </c>
-      <c r="C19" t="n">
-        <v>7374.83</v>
-      </c>
-      <c r="D19" t="n">
-        <v>7150.88</v>
-      </c>
-      <c r="E19" t="n">
-        <v>7350.78</v>
-      </c>
-      <c r="F19" t="n">
-        <v>7371.42</v>
-      </c>
-      <c r="G19" t="n">
-        <v>7363.92</v>
       </c>
     </row>
     <row r="20">
@@ -922,22 +1268,40 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>29486.84</v>
+      </c>
+      <c r="C20" t="n">
+        <v>29464.8</v>
+      </c>
+      <c r="D20" t="n">
+        <v>29550.86</v>
+      </c>
+      <c r="E20" t="n">
+        <v>29767.99</v>
+      </c>
+      <c r="F20" t="n">
+        <v>23552.5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>23737.25</v>
+      </c>
+      <c r="H20" t="n">
+        <v>23820.82</v>
+      </c>
+      <c r="I20" t="n">
+        <v>23598.72</v>
+      </c>
+      <c r="J20" t="n">
+        <v>11655.01</v>
+      </c>
+      <c r="K20" t="n">
+        <v>11827.11</v>
+      </c>
+      <c r="L20" t="n">
+        <v>11695.07</v>
+      </c>
+      <c r="M20" t="n">
         <v>11494.17</v>
-      </c>
-      <c r="C20" t="n">
-        <v>11781.11</v>
-      </c>
-      <c r="D20" t="n">
-        <v>11314.37</v>
-      </c>
-      <c r="E20" t="n">
-        <v>11700.33</v>
-      </c>
-      <c r="F20" t="n">
-        <v>11511.87</v>
-      </c>
-      <c r="G20" t="n">
-        <v>11695.12</v>
       </c>
     </row>
     <row r="21">
@@ -947,22 +1311,38 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>78133.67</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>78564.17</v>
+      </c>
+      <c r="E21" t="n">
+        <v>78142.38</v>
+      </c>
+      <c r="F21" t="n">
+        <v>78122.42</v>
+      </c>
+      <c r="G21" t="n">
+        <v>77687.67</v>
+      </c>
+      <c r="H21" t="n">
+        <v>77932.28999999999</v>
+      </c>
+      <c r="I21" t="n">
+        <v>78340.53</v>
+      </c>
+      <c r="J21" t="n">
+        <v>77835.47</v>
+      </c>
+      <c r="K21" t="n">
+        <v>77863.92</v>
+      </c>
+      <c r="L21" t="n">
+        <v>78353.78</v>
+      </c>
+      <c r="M21" t="n">
         <v>78046.99000000001</v>
-      </c>
-      <c r="C21" t="n">
-        <v>77768.64999999999</v>
-      </c>
-      <c r="D21" t="n">
-        <v>76397.61</v>
-      </c>
-      <c r="E21" t="n">
-        <v>77913.53</v>
-      </c>
-      <c r="F21" t="n">
-        <v>78375.64999999999</v>
-      </c>
-      <c r="G21" t="n">
-        <v>78196.89999999999</v>
       </c>
     </row>
     <row r="22">
@@ -972,22 +1352,40 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>34736.42</v>
+      </c>
+      <c r="C22" t="n">
+        <v>35021.11</v>
+      </c>
+      <c r="D22" t="n">
+        <v>35064.67</v>
+      </c>
+      <c r="E22" t="n">
+        <v>34700.39</v>
+      </c>
+      <c r="F22" t="n">
+        <v>34770.81</v>
+      </c>
+      <c r="G22" t="n">
+        <v>35230.64</v>
+      </c>
+      <c r="H22" t="n">
+        <v>34699.61</v>
+      </c>
+      <c r="I22" t="n">
+        <v>34686.97</v>
+      </c>
+      <c r="J22" t="n">
+        <v>34889.34</v>
+      </c>
+      <c r="K22" t="n">
+        <v>34839.16</v>
+      </c>
+      <c r="L22" t="n">
+        <v>35058.9</v>
+      </c>
+      <c r="M22" t="n">
         <v>34186.11</v>
-      </c>
-      <c r="C22" t="n">
-        <v>35540.15</v>
-      </c>
-      <c r="D22" t="n">
-        <v>34423</v>
-      </c>
-      <c r="E22" t="n">
-        <v>34665.29</v>
-      </c>
-      <c r="F22" t="n">
-        <v>34419.28</v>
-      </c>
-      <c r="G22" t="n">
-        <v>34423.52</v>
       </c>
     </row>
     <row r="23">
@@ -997,22 +1395,40 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>23265.9</v>
+      </c>
+      <c r="C23" t="n">
+        <v>23466.91</v>
+      </c>
+      <c r="D23" t="n">
+        <v>23173.55</v>
+      </c>
+      <c r="E23" t="n">
+        <v>23331.44</v>
+      </c>
+      <c r="F23" t="n">
+        <v>23422.28</v>
+      </c>
+      <c r="G23" t="n">
+        <v>23264.37</v>
+      </c>
+      <c r="H23" t="n">
+        <v>23187.01</v>
+      </c>
+      <c r="I23" t="n">
+        <v>23246.49</v>
+      </c>
+      <c r="J23" t="n">
+        <v>23457.94</v>
+      </c>
+      <c r="K23" t="n">
+        <v>23178.72</v>
+      </c>
+      <c r="L23" t="n">
+        <v>23345.59</v>
+      </c>
+      <c r="M23" t="n">
         <v>23294.44</v>
-      </c>
-      <c r="C23" t="n">
-        <v>23358.86</v>
-      </c>
-      <c r="D23" t="n">
-        <v>22467.14</v>
-      </c>
-      <c r="E23" t="n">
-        <v>23242.69</v>
-      </c>
-      <c r="F23" t="n">
-        <v>23432.38</v>
-      </c>
-      <c r="G23" t="n">
-        <v>37457.62</v>
       </c>
     </row>
     <row r="24">
@@ -1022,72 +1438,151 @@
         </is>
       </c>
       <c r="B24" t="n">
+        <v>136656.94</v>
+      </c>
+      <c r="C24" t="n">
+        <v>136740.05</v>
+      </c>
+      <c r="D24" t="n">
+        <v>128943.92</v>
+      </c>
+      <c r="E24" t="n">
+        <v>127051.11</v>
+      </c>
+      <c r="F24" t="n">
+        <v>136293.64</v>
+      </c>
+      <c r="G24" t="n">
+        <v>137680.47</v>
+      </c>
+      <c r="H24" t="n">
+        <v>137667.53</v>
+      </c>
+      <c r="I24" t="n">
+        <v>137917.67</v>
+      </c>
+      <c r="J24" t="n">
+        <v>137824.68</v>
+      </c>
+      <c r="K24" t="n">
+        <v>138260.61</v>
+      </c>
+      <c r="L24" t="n">
+        <v>138175.71</v>
+      </c>
+      <c r="M24" t="n">
         <v>134251.64</v>
-      </c>
-      <c r="C24" t="n">
-        <v>128131.69</v>
-      </c>
-      <c r="D24" t="n">
-        <v>124469.95</v>
-      </c>
-      <c r="E24" t="n">
-        <v>129396.16</v>
-      </c>
-      <c r="F24" t="n">
-        <v>128112.97</v>
-      </c>
-      <c r="G24" t="n">
-        <v>137837.88</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97997.06</v>
+        <v>691621.47</v>
       </c>
       <c r="C25" t="n">
-        <v>97801.21000000001</v>
+        <v>687495.29</v>
       </c>
       <c r="D25" t="n">
-        <v>95134.34</v>
-      </c>
-      <c r="E25" t="n">
-        <v>97774.66</v>
-      </c>
-      <c r="F25" t="n">
-        <v>98514.14</v>
-      </c>
-      <c r="G25" t="n">
-        <v>101791.08</v>
-      </c>
+        <v>687784.23</v>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>132183.8</v>
+      </c>
+      <c r="C26" t="n">
+        <v>117175.09</v>
+      </c>
+      <c r="D26" t="n">
+        <v>130049.65</v>
+      </c>
+      <c r="E26" t="n">
+        <v>108311.67</v>
+      </c>
+      <c r="F26" t="n">
+        <v>108710.95</v>
+      </c>
+      <c r="G26" t="n">
+        <v>109175.49</v>
+      </c>
+      <c r="H26" t="n">
+        <v>109826.54</v>
+      </c>
+      <c r="I26" t="n">
+        <v>109967.93</v>
+      </c>
+      <c r="J26" t="n">
+        <v>106068.31</v>
+      </c>
+      <c r="K26" t="n">
+        <v>104030.72</v>
+      </c>
+      <c r="L26" t="n">
+        <v>99338.16</v>
+      </c>
+      <c r="M26" t="n">
+        <v>97997.06</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
           <t>total</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B27" t="n">
+        <v>3172411.23</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2226326.73</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3121191.54</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2491168.52</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2500351.86</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2511036.3</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2526010.41</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2529262.34</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2439571.13</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2392706.55</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2284777.7</v>
+      </c>
+      <c r="M27" t="n">
         <v>2253932.43</v>
-      </c>
-      <c r="C26" t="n">
-        <v>2249427.89</v>
-      </c>
-      <c r="D26" t="n">
-        <v>2188089.93</v>
-      </c>
-      <c r="E26" t="n">
-        <v>2248817.2</v>
-      </c>
-      <c r="F26" t="n">
-        <v>2265825.33</v>
-      </c>
-      <c r="G26" t="n">
-        <v>2341194.95</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/EDN.xlsx
+++ b/backend/src/excel_handler/files/EDN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:AA30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,132 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>17-02-2023</t>
+          <t>05-05-2023</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>24-02-2023</t>
+          <t>12-05-2023</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>03-03-2023</t>
+          <t>19-05-2023</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>10-03-2023</t>
+          <t>24-05-2023</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>17-03-2023</t>
+          <t>02-06-2023</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>23-03-2023</t>
+          <t>09-06-2023</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>16-06-2023</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>23-06-2023</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>30-06-2023</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>14-07-2023</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>21-07-2023</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>28-07-2023</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>04-08-2023</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>11-08-2023</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>18-08-2023</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>25-08-2023</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>01-09-2023</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>08-09-2023</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>22-09-2023</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>29-09-2023</t>
         </is>
       </c>
     </row>
@@ -502,40 +572,82 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>197337.63</v>
+        <v>46812.72</v>
       </c>
       <c r="C2" t="n">
-        <v>196831.15</v>
+        <v>46794.47</v>
       </c>
       <c r="D2" t="n">
-        <v>196622.75</v>
+        <v>45456.38</v>
       </c>
       <c r="E2" t="n">
-        <v>196889.67</v>
+        <v>47003.38</v>
       </c>
       <c r="F2" t="n">
-        <v>196327.68</v>
+        <v>47028.29</v>
       </c>
       <c r="G2" t="n">
-        <v>197238.17</v>
+        <v>46702.21</v>
       </c>
       <c r="H2" t="n">
-        <v>197459.53</v>
+        <v>46342.74</v>
       </c>
       <c r="I2" t="n">
-        <v>197360.66</v>
+        <v>46274.55</v>
       </c>
       <c r="J2" t="n">
-        <v>151723.7</v>
+        <v>94493.39999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>151297.83</v>
+        <v>93964.86</v>
       </c>
       <c r="L2" t="n">
-        <v>46790.47</v>
+        <v>114525.76</v>
       </c>
       <c r="M2" t="n">
-        <v>46812.72</v>
+        <v>132251.2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>132303.3</v>
+      </c>
+      <c r="O2" t="n">
+        <v>146272.01</v>
+      </c>
+      <c r="P2" t="n">
+        <v>170736.05</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>184002.05</v>
+      </c>
+      <c r="R2" t="n">
+        <v>195914.93</v>
+      </c>
+      <c r="S2" t="n">
+        <v>218807.99</v>
+      </c>
+      <c r="T2" t="n">
+        <v>218463.97</v>
+      </c>
+      <c r="U2" t="n">
+        <v>244347.19</v>
+      </c>
+      <c r="V2" t="n">
+        <v>244817.74</v>
+      </c>
+      <c r="W2" t="n">
+        <v>244724.8</v>
+      </c>
+      <c r="X2" t="n">
+        <v>279834.94</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>278767.78</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>152454.03</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>153421.53</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +657,82 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>221699.36</v>
+        <v>195378.78</v>
       </c>
       <c r="C3" t="n">
-        <v>196327.84</v>
+        <v>195743.43</v>
       </c>
       <c r="D3" t="n">
-        <v>195530.65</v>
+        <v>190979.46</v>
       </c>
       <c r="E3" t="n">
-        <v>195173.65</v>
+        <v>196791.66</v>
       </c>
       <c r="F3" t="n">
-        <v>195542.25</v>
+        <v>196962.5</v>
       </c>
       <c r="G3" t="n">
-        <v>196109.81</v>
+        <v>229052.92</v>
       </c>
       <c r="H3" t="n">
-        <v>195419.22</v>
+        <v>228906.04</v>
       </c>
       <c r="I3" t="n">
-        <v>196360.91</v>
+        <v>227249.94</v>
       </c>
       <c r="J3" t="n">
-        <v>195042.19</v>
+        <v>227960.57</v>
       </c>
       <c r="K3" t="n">
-        <v>195047.2</v>
+        <v>227725.9</v>
       </c>
       <c r="L3" t="n">
-        <v>196633.22</v>
+        <v>227968.58</v>
       </c>
       <c r="M3" t="n">
-        <v>195378.78</v>
+        <v>228466.94</v>
+      </c>
+      <c r="N3" t="n">
+        <v>227478.12</v>
+      </c>
+      <c r="O3" t="n">
+        <v>228122.37</v>
+      </c>
+      <c r="P3" t="n">
+        <v>228171.94</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>228128.61</v>
+      </c>
+      <c r="R3" t="n">
+        <v>229276.55</v>
+      </c>
+      <c r="S3" t="n">
+        <v>251408.46</v>
+      </c>
+      <c r="T3" t="n">
+        <v>253842.4</v>
+      </c>
+      <c r="U3" t="n">
+        <v>250955.74</v>
+      </c>
+      <c r="V3" t="n">
+        <v>251385.1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>252210.5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>250372.33</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>250328.56</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>279496.93</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>279011.8</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +742,82 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>127993.49</v>
+        <v>127533.67</v>
       </c>
       <c r="C4" t="n">
-        <v>128192.98</v>
+        <v>128123.84</v>
       </c>
       <c r="D4" t="n">
-        <v>128257.75</v>
+        <v>124288.31</v>
       </c>
       <c r="E4" t="n">
-        <v>127516.24</v>
+        <v>127560.98</v>
       </c>
       <c r="F4" t="n">
-        <v>127580.21</v>
+        <v>128435.38</v>
       </c>
       <c r="G4" t="n">
-        <v>128583.05</v>
+        <v>128615.32</v>
       </c>
       <c r="H4" t="n">
-        <v>128541.64</v>
+        <v>127994.64</v>
       </c>
       <c r="I4" t="n">
-        <v>128045.05</v>
+        <v>127687.06</v>
       </c>
       <c r="J4" t="n">
-        <v>128251.7</v>
+        <v>128079.67</v>
       </c>
       <c r="K4" t="n">
-        <v>127525.52</v>
+        <v>127475.03</v>
       </c>
       <c r="L4" t="n">
-        <v>128583.97</v>
+        <v>128091.74</v>
       </c>
       <c r="M4" t="n">
-        <v>127533.67</v>
+        <v>127810.28</v>
+      </c>
+      <c r="N4" t="n">
+        <v>128441.01</v>
+      </c>
+      <c r="O4" t="n">
+        <v>128266.36</v>
+      </c>
+      <c r="P4" t="n">
+        <v>127446.83</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>127704.06</v>
+      </c>
+      <c r="R4" t="n">
+        <v>127882.02</v>
+      </c>
+      <c r="S4" t="n">
+        <v>128337.04</v>
+      </c>
+      <c r="T4" t="n">
+        <v>129007.01</v>
+      </c>
+      <c r="U4" t="n">
+        <v>128213.56</v>
+      </c>
+      <c r="V4" t="n">
+        <v>128154.21</v>
+      </c>
+      <c r="W4" t="n">
+        <v>128053.8</v>
+      </c>
+      <c r="X4" t="n">
+        <v>128176.01</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>128147.88</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>128156.53</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>127820.14</v>
       </c>
     </row>
     <row r="5">
@@ -631,40 +827,82 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>217335.35</v>
+        <v>216886.15</v>
       </c>
       <c r="C5" t="n">
-        <v>218178.8</v>
+        <v>217882.97</v>
       </c>
       <c r="D5" t="n">
-        <v>219119.05</v>
+        <v>212027.02</v>
       </c>
       <c r="E5" t="n">
-        <v>218505</v>
+        <v>216987.23</v>
       </c>
       <c r="F5" t="n">
-        <v>216817.15</v>
+        <v>216917.94</v>
       </c>
       <c r="G5" t="n">
-        <v>218714.01</v>
+        <v>218712.12</v>
       </c>
       <c r="H5" t="n">
-        <v>218349.55</v>
+        <v>217696.15</v>
       </c>
       <c r="I5" t="n">
-        <v>217323.52</v>
+        <v>217522.87</v>
       </c>
       <c r="J5" t="n">
-        <v>217401.82</v>
+        <v>218385.83</v>
       </c>
       <c r="K5" t="n">
-        <v>217098.82</v>
+        <v>217815.72</v>
       </c>
       <c r="L5" t="n">
-        <v>218661.3</v>
+        <v>217154.07</v>
       </c>
       <c r="M5" t="n">
-        <v>216886.15</v>
+        <v>218205.49</v>
+      </c>
+      <c r="N5" t="n">
+        <v>217243.6</v>
+      </c>
+      <c r="O5" t="n">
+        <v>217402.85</v>
+      </c>
+      <c r="P5" t="n">
+        <v>217143</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>217321.39</v>
+      </c>
+      <c r="R5" t="n">
+        <v>217608.63</v>
+      </c>
+      <c r="S5" t="n">
+        <v>217294.81</v>
+      </c>
+      <c r="T5" t="n">
+        <v>219604.24</v>
+      </c>
+      <c r="U5" t="n">
+        <v>218590.47</v>
+      </c>
+      <c r="V5" t="n">
+        <v>217476.86</v>
+      </c>
+      <c r="W5" t="n">
+        <v>217668.14</v>
+      </c>
+      <c r="X5" t="n">
+        <v>218199.68</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>217086.64</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>218494.76</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>218719.01</v>
       </c>
     </row>
     <row r="6">
@@ -674,40 +912,82 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8468.639999999999</v>
+        <v>8338.969999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>8405.610000000001</v>
+        <v>8468.219999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>8388.25</v>
+        <v>8274.299999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>8382.969999999999</v>
+        <v>8450.33</v>
       </c>
       <c r="F6" t="n">
-        <v>8379.08</v>
+        <v>8417.16</v>
       </c>
       <c r="G6" t="n">
-        <v>8420.959999999999</v>
+        <v>8397.110000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>8452.219999999999</v>
+        <v>8471.120000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>8409.83</v>
+        <v>8465.9</v>
       </c>
       <c r="J6" t="n">
-        <v>8382.139999999999</v>
+        <v>8486.469999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>8349.4</v>
+        <v>8419.200000000001</v>
       </c>
       <c r="L6" t="n">
-        <v>8470.290000000001</v>
+        <v>8381.639999999999</v>
       </c>
       <c r="M6" t="n">
-        <v>8338.969999999999</v>
+        <v>8408.030000000001</v>
+      </c>
+      <c r="N6" t="n">
+        <v>8395.360000000001</v>
+      </c>
+      <c r="O6" t="n">
+        <v>8440.629999999999</v>
+      </c>
+      <c r="P6" t="n">
+        <v>8427.030000000001</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>8402.959999999999</v>
+      </c>
+      <c r="R6" t="n">
+        <v>8398.48</v>
+      </c>
+      <c r="S6" t="n">
+        <v>8440.18</v>
+      </c>
+      <c r="T6" t="n">
+        <v>8489.389999999999</v>
+      </c>
+      <c r="U6" t="n">
+        <v>8358.030000000001</v>
+      </c>
+      <c r="V6" t="n">
+        <v>8393.620000000001</v>
+      </c>
+      <c r="W6" t="n">
+        <v>8440.52</v>
+      </c>
+      <c r="X6" t="n">
+        <v>8397.200000000001</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>8370.26</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>8368.25</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>8403.219999999999</v>
       </c>
     </row>
     <row r="7">
@@ -717,40 +997,82 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19056.78</v>
+        <v>2285.55</v>
       </c>
       <c r="C7" t="n">
-        <v>19057.86</v>
+        <v>2278.52</v>
       </c>
       <c r="D7" t="n">
-        <v>19041.74</v>
+        <v>2218.53</v>
       </c>
       <c r="E7" t="n">
-        <v>18980.26</v>
+        <v>2274.95</v>
       </c>
       <c r="F7" t="n">
-        <v>19032.27</v>
+        <v>2281.1</v>
       </c>
       <c r="G7" t="n">
-        <v>19070.65</v>
+        <v>2285.9</v>
       </c>
       <c r="H7" t="n">
-        <v>19107.34</v>
+        <v>2285.85</v>
       </c>
       <c r="I7" t="n">
-        <v>19079.16</v>
+        <v>2284.84</v>
       </c>
       <c r="J7" t="n">
-        <v>19020.16</v>
+        <v>2275.05</v>
       </c>
       <c r="K7" t="n">
-        <v>2273.66</v>
+        <v>2279.82</v>
       </c>
       <c r="L7" t="n">
-        <v>2281.55</v>
+        <v>11327.03</v>
       </c>
       <c r="M7" t="n">
-        <v>2285.55</v>
+        <v>11294.76</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11320.19</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3912.06</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3679.61</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3675</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3678.43</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3680.88</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3720.75</v>
+      </c>
+      <c r="U7" t="n">
+        <v>3679.49</v>
+      </c>
+      <c r="V7" t="n">
+        <v>3672.81</v>
+      </c>
+      <c r="W7" t="n">
+        <v>3674.37</v>
+      </c>
+      <c r="X7" t="n">
+        <v>3679.65</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>3681.46</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>3681.84</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>3486.14</v>
       </c>
     </row>
     <row r="8">
@@ -760,829 +1082,1810 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>156144.15</v>
+        <v>156306.5</v>
       </c>
       <c r="C8" t="n">
-        <v>155761.69</v>
+        <v>155689.42</v>
       </c>
       <c r="D8" t="n">
-        <v>154965.87</v>
+        <v>153836.02</v>
       </c>
       <c r="E8" t="n">
-        <v>155453.09</v>
+        <v>158574.2</v>
       </c>
       <c r="F8" t="n">
-        <v>155992.71</v>
+        <v>158869.49</v>
       </c>
       <c r="G8" t="n">
-        <v>156474.29</v>
+        <v>157598.67</v>
       </c>
       <c r="H8" t="n">
-        <v>154957.28</v>
+        <v>157560.11</v>
       </c>
       <c r="I8" t="n">
-        <v>156653.77</v>
+        <v>157990.37</v>
       </c>
       <c r="J8" t="n">
-        <v>155208.66</v>
+        <v>166157.01</v>
       </c>
       <c r="K8" t="n">
-        <v>155161.67</v>
+        <v>166562.05</v>
       </c>
       <c r="L8" t="n">
-        <v>155896.72</v>
+        <v>165170.86</v>
       </c>
       <c r="M8" t="n">
-        <v>156306.5</v>
+        <v>186272.71</v>
+      </c>
+      <c r="N8" t="n">
+        <v>187317.71</v>
+      </c>
+      <c r="O8" t="n">
+        <v>185508.57</v>
+      </c>
+      <c r="P8" t="n">
+        <v>201388.07</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>227119.53</v>
+      </c>
+      <c r="R8" t="n">
+        <v>227455.83</v>
+      </c>
+      <c r="S8" t="n">
+        <v>226203.44</v>
+      </c>
+      <c r="T8" t="n">
+        <v>218325.63</v>
+      </c>
+      <c r="U8" t="n">
+        <v>215747.48</v>
+      </c>
+      <c r="V8" t="n">
+        <v>215519.54</v>
+      </c>
+      <c r="W8" t="n">
+        <v>212772.67</v>
+      </c>
+      <c r="X8" t="n">
+        <v>213625.37</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>212319.54</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>213250.55</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>235238.24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>4387.69</v>
-      </c>
+          <t>Compass Crecimiento</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="n">
-        <v>3302.13</v>
-      </c>
-      <c r="E9" t="n">
-        <v>4536.06</v>
-      </c>
-      <c r="F9" t="n">
-        <v>3270.71</v>
-      </c>
-      <c r="G9" t="n">
-        <v>3251.74</v>
-      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>4596.14</v>
+        <v>22591.5</v>
       </c>
       <c r="I9" t="n">
-        <v>4746.6</v>
+        <v>41675.65</v>
       </c>
       <c r="J9" t="n">
-        <v>4771.96</v>
+        <v>61547.45</v>
       </c>
       <c r="K9" t="n">
-        <v>3299.39</v>
+        <v>60187.9</v>
       </c>
       <c r="L9" t="n">
-        <v>3376.19</v>
+        <v>62244.18</v>
       </c>
       <c r="M9" t="n">
-        <v>4706.65</v>
+        <v>60497.54</v>
+      </c>
+      <c r="N9" t="n">
+        <v>83084.11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>82920.86</v>
+      </c>
+      <c r="P9" t="n">
+        <v>78910.71000000001</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>80641.53999999999</v>
+      </c>
+      <c r="R9" t="n">
+        <v>79473.92</v>
+      </c>
+      <c r="S9" t="n">
+        <v>80200.44</v>
+      </c>
+      <c r="T9" t="n">
+        <v>83142.67</v>
+      </c>
+      <c r="U9" t="n">
+        <v>79486.82000000001</v>
+      </c>
+      <c r="V9" t="n">
+        <v>79017.47</v>
+      </c>
+      <c r="W9" t="n">
+        <v>82664.98</v>
+      </c>
+      <c r="X9" t="n">
+        <v>80280.56</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>79913.05</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>79466.73</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>82370.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>142260.66</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
+        <v>4706.65</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4729.58</v>
+      </c>
       <c r="D10" t="n">
-        <v>140939.81</v>
+        <v>3185.07</v>
       </c>
       <c r="E10" t="n">
-        <v>147517.95</v>
+        <v>4371.92</v>
       </c>
       <c r="F10" t="n">
-        <v>160874.8</v>
+        <v>4726.04</v>
       </c>
       <c r="G10" t="n">
-        <v>159268.31</v>
+        <v>4645.77</v>
       </c>
       <c r="H10" t="n">
-        <v>160159.02</v>
+        <v>4480.34</v>
       </c>
       <c r="I10" t="n">
-        <v>159905.02</v>
+        <v>4654.41</v>
       </c>
       <c r="J10" t="n">
-        <v>142878.29</v>
+        <v>3216.42</v>
       </c>
       <c r="K10" t="n">
-        <v>130503.71</v>
+        <v>4757.57</v>
       </c>
       <c r="L10" t="n">
-        <v>130861.24</v>
+        <v>4120.99</v>
       </c>
       <c r="M10" t="n">
-        <v>130253.53</v>
+        <v>4050.14</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4184.44</v>
+      </c>
+      <c r="O10" t="n">
+        <v>3541.1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4496.15</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4393.14</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4328.27</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4390.85</v>
+      </c>
+      <c r="T10" t="n">
+        <v>4384.06</v>
+      </c>
+      <c r="U10" t="n">
+        <v>3670.71</v>
+      </c>
+      <c r="V10" t="n">
+        <v>3559.13</v>
+      </c>
+      <c r="W10" t="n">
+        <v>3574.31</v>
+      </c>
+      <c r="X10" t="n">
+        <v>3687.74</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>3663.56</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>3567.2</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>3495.39</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>138362.63</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
+        <v>130253.53</v>
+      </c>
+      <c r="C11" t="n">
+        <v>130197.87</v>
+      </c>
       <c r="D11" t="n">
-        <v>144460.37</v>
+        <v>127086.09</v>
       </c>
       <c r="E11" t="n">
-        <v>145193.97</v>
+        <v>129895.45</v>
       </c>
       <c r="F11" t="n">
-        <v>144895.86</v>
+        <v>129483.32</v>
       </c>
       <c r="G11" t="n">
-        <v>144385.06</v>
+        <v>129260.36</v>
       </c>
       <c r="H11" t="n">
-        <v>144602.24</v>
+        <v>130174.88</v>
       </c>
       <c r="I11" t="n">
-        <v>144874.91</v>
+        <v>130325.18</v>
       </c>
       <c r="J11" t="n">
-        <v>133332.36</v>
+        <v>130762.16</v>
       </c>
       <c r="K11" t="n">
-        <v>119921.41</v>
+        <v>130773.79</v>
       </c>
       <c r="L11" t="n">
-        <v>119907.64</v>
+        <v>130832.44</v>
       </c>
       <c r="M11" t="n">
-        <v>120433.08</v>
+        <v>129227.31</v>
+      </c>
+      <c r="N11" t="n">
+        <v>130072.65</v>
+      </c>
+      <c r="O11" t="n">
+        <v>137905.66</v>
+      </c>
+      <c r="P11" t="n">
+        <v>137918.83</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>148647.61</v>
+      </c>
+      <c r="R11" t="n">
+        <v>155042.4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>155463.31</v>
+      </c>
+      <c r="T11" t="n">
+        <v>155804.27</v>
+      </c>
+      <c r="U11" t="n">
+        <v>155410.45</v>
+      </c>
+      <c r="V11" t="n">
+        <v>154895.77</v>
+      </c>
+      <c r="W11" t="n">
+        <v>162787.34</v>
+      </c>
+      <c r="X11" t="n">
+        <v>163684.33</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>162974.13</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>172311.48</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>173008.33</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>555525.9</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
+        <v>120433.08</v>
+      </c>
+      <c r="C12" t="n">
+        <v>120666.1</v>
+      </c>
       <c r="D12" t="n">
-        <v>515820.62</v>
+        <v>116814.72</v>
       </c>
       <c r="E12" t="n">
-        <v>565787.85</v>
+        <v>120532.9</v>
       </c>
       <c r="F12" t="n">
-        <v>561989.3</v>
+        <v>120075.15</v>
       </c>
       <c r="G12" t="n">
-        <v>566895.1</v>
+        <v>121026.15</v>
       </c>
       <c r="H12" t="n">
-        <v>565953.63</v>
+        <v>121174.1</v>
       </c>
       <c r="I12" t="n">
-        <v>568438.04</v>
+        <v>120856.76</v>
       </c>
       <c r="J12" t="n">
-        <v>567920.39</v>
+        <v>125171.77</v>
       </c>
       <c r="K12" t="n">
-        <v>565770.05</v>
+        <v>126096.04</v>
       </c>
       <c r="L12" t="n">
-        <v>556405.55</v>
+        <v>124339.63</v>
       </c>
       <c r="M12" t="n">
-        <v>544572</v>
+        <v>125389.25</v>
+      </c>
+      <c r="N12" t="n">
+        <v>125605.95</v>
+      </c>
+      <c r="O12" t="n">
+        <v>137995.07</v>
+      </c>
+      <c r="P12" t="n">
+        <v>139061.86</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>147423.55</v>
+      </c>
+      <c r="R12" t="n">
+        <v>146944.33</v>
+      </c>
+      <c r="S12" t="n">
+        <v>147128.67</v>
+      </c>
+      <c r="T12" t="n">
+        <v>147877.29</v>
+      </c>
+      <c r="U12" t="n">
+        <v>147869.74</v>
+      </c>
+      <c r="V12" t="n">
+        <v>146825.45</v>
+      </c>
+      <c r="W12" t="n">
+        <v>147457.06</v>
+      </c>
+      <c r="X12" t="n">
+        <v>148107.75</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>147465.9</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>164013.13</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>163704.54</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>155940.79</v>
+        <v>544572</v>
       </c>
       <c r="C13" t="n">
-        <v>154529.9</v>
+        <v>543912.88</v>
       </c>
       <c r="D13" t="n">
-        <v>155688.48</v>
+        <v>531255.73</v>
       </c>
       <c r="E13" t="n">
-        <v>154753.65</v>
+        <v>545345.02</v>
       </c>
       <c r="F13" t="n">
-        <v>154739.88</v>
+        <v>560615.76</v>
       </c>
       <c r="G13" t="n">
-        <v>156255.5</v>
+        <v>577334.41</v>
       </c>
       <c r="H13" t="n">
-        <v>156361.59</v>
+        <v>579023.83</v>
       </c>
       <c r="I13" t="n">
-        <v>154626.71</v>
+        <v>593695.17</v>
       </c>
       <c r="J13" t="n">
-        <v>154319.33</v>
+        <v>610768.9</v>
       </c>
       <c r="K13" t="n">
-        <v>154566.38</v>
+        <v>622863.77</v>
       </c>
       <c r="L13" t="n">
-        <v>155577.83</v>
+        <v>640730.53</v>
       </c>
       <c r="M13" t="n">
-        <v>155896.67</v>
+        <v>692481.66</v>
+      </c>
+      <c r="N13" t="n">
+        <v>694214.53</v>
+      </c>
+      <c r="O13" t="n">
+        <v>700741.63</v>
+      </c>
+      <c r="P13" t="n">
+        <v>707378.0600000001</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>729828.08</v>
+      </c>
+      <c r="R13" t="n">
+        <v>737928.52</v>
+      </c>
+      <c r="S13" t="n">
+        <v>716972.09</v>
+      </c>
+      <c r="T13" t="n">
+        <v>718814.09</v>
+      </c>
+      <c r="U13" t="n">
+        <v>734734.63</v>
+      </c>
+      <c r="V13" t="n">
+        <v>740013.17</v>
+      </c>
+      <c r="W13" t="n">
+        <v>759324.35</v>
+      </c>
+      <c r="X13" t="n">
+        <v>767358.25</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>709347.7</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>719551.14</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>717062.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Gainvest Renta Variable</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>150378.55</v>
+        <v>155896.67</v>
       </c>
       <c r="C14" t="n">
-        <v>150329.28</v>
+        <v>155880.07</v>
       </c>
       <c r="D14" t="n">
-        <v>150293.78</v>
+        <v>150812.77</v>
       </c>
       <c r="E14" t="n">
-        <v>149925.73</v>
+        <v>155036.29</v>
       </c>
       <c r="F14" t="n">
-        <v>149824.79</v>
+        <v>155415.65</v>
       </c>
       <c r="G14" t="n">
-        <v>149725.75</v>
+        <v>151864.26</v>
       </c>
       <c r="H14" t="n">
-        <v>149869.5</v>
+        <v>151778.68</v>
       </c>
       <c r="I14" t="n">
-        <v>149719.87</v>
+        <v>161487.66</v>
       </c>
       <c r="J14" t="n">
-        <v>149984.49</v>
+        <v>161381.76</v>
       </c>
       <c r="K14" t="n">
-        <v>150176.13</v>
+        <v>163087.32</v>
       </c>
       <c r="L14" t="n">
-        <v>149823.94</v>
+        <v>161998.58</v>
       </c>
       <c r="M14" t="n">
-        <v>150235.27</v>
+        <v>163023.52</v>
+      </c>
+      <c r="N14" t="n">
+        <v>162607.71</v>
+      </c>
+      <c r="O14" t="n">
+        <v>161835.18</v>
+      </c>
+      <c r="P14" t="n">
+        <v>169514.7</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>168656.88</v>
+      </c>
+      <c r="R14" t="n">
+        <v>169503.27</v>
+      </c>
+      <c r="S14" t="n">
+        <v>168450.85</v>
+      </c>
+      <c r="T14" t="n">
+        <v>169274.85</v>
+      </c>
+      <c r="U14" t="n">
+        <v>168692.45</v>
+      </c>
+      <c r="V14" t="n">
+        <v>169310.72</v>
+      </c>
+      <c r="W14" t="n">
+        <v>169933.39</v>
+      </c>
+      <c r="X14" t="n">
+        <v>173384.11</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>177839.33</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>186809.49</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>185183.34</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>Gainvest Renta Variable</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5156.3</v>
+        <v>150235.27</v>
       </c>
       <c r="C15" t="n">
-        <v>5129.72</v>
+        <v>150034.75</v>
       </c>
       <c r="D15" t="n">
-        <v>5126.18</v>
+        <v>145982.12</v>
       </c>
       <c r="E15" t="n">
-        <v>5087.79</v>
+        <v>150161.6</v>
       </c>
       <c r="F15" t="n">
-        <v>5158.28</v>
+        <v>149817.45</v>
       </c>
       <c r="G15" t="n">
-        <v>5150.42</v>
+        <v>150152.82</v>
       </c>
       <c r="H15" t="n">
-        <v>5069.72</v>
+        <v>150187.73</v>
       </c>
       <c r="I15" t="n">
-        <v>4989.4</v>
+        <v>149783.53</v>
       </c>
       <c r="J15" t="n">
-        <v>4950.5</v>
+        <v>150259.77</v>
       </c>
       <c r="K15" t="n">
-        <v>5054.21</v>
+        <v>150015.89</v>
       </c>
       <c r="L15" t="n">
-        <v>4999.73</v>
+        <v>150028.47</v>
       </c>
       <c r="M15" t="n">
-        <v>5189.38</v>
+        <v>149957.67</v>
+      </c>
+      <c r="N15" t="n">
+        <v>149729.47</v>
+      </c>
+      <c r="O15" t="n">
+        <v>149849.96</v>
+      </c>
+      <c r="P15" t="n">
+        <v>149926.52</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>149837.64</v>
+      </c>
+      <c r="R15" t="n">
+        <v>149792.93</v>
+      </c>
+      <c r="S15" t="n">
+        <v>150199.58</v>
+      </c>
+      <c r="T15" t="n">
+        <v>149999.23</v>
+      </c>
+      <c r="U15" t="n">
+        <v>149820.25</v>
+      </c>
+      <c r="V15" t="n">
+        <v>150217.16</v>
+      </c>
+      <c r="W15" t="n">
+        <v>150270.91</v>
+      </c>
+      <c r="X15" t="n">
+        <v>149830.95</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>149893.6</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>149806.66</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>150130.59</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9287.01</v>
+        <v>5189.38</v>
       </c>
       <c r="C16" t="n">
-        <v>9324.84</v>
+        <v>5045.32</v>
       </c>
       <c r="D16" t="n">
-        <v>9284.43</v>
+        <v>4803.08</v>
       </c>
       <c r="E16" t="n">
-        <v>9334.33</v>
+        <v>5120.13</v>
       </c>
       <c r="F16" t="n">
-        <v>9290.719999999999</v>
+        <v>5226</v>
       </c>
       <c r="G16" t="n">
-        <v>9323.620000000001</v>
+        <v>4961.56</v>
       </c>
       <c r="H16" t="n">
-        <v>9322.43</v>
+        <v>5205.82</v>
       </c>
       <c r="I16" t="n">
-        <v>9338.58</v>
+        <v>5108.49</v>
       </c>
       <c r="J16" t="n">
-        <v>9289.49</v>
+        <v>5017.92</v>
       </c>
       <c r="K16" t="n">
-        <v>9340.18</v>
+        <v>4959.99</v>
       </c>
       <c r="L16" t="n">
-        <v>9285.66</v>
+        <v>5065.83</v>
       </c>
       <c r="M16" t="n">
-        <v>9336.040000000001</v>
+        <v>5181.85</v>
+      </c>
+      <c r="N16" t="n">
+        <v>5065</v>
+      </c>
+      <c r="O16" t="n">
+        <v>5103.3</v>
+      </c>
+      <c r="P16" t="n">
+        <v>25060.05</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>24993.09</v>
+      </c>
+      <c r="R16" t="n">
+        <v>24967.77</v>
+      </c>
+      <c r="S16" t="n">
+        <v>24996.89</v>
+      </c>
+      <c r="T16" t="n">
+        <v>25025.25</v>
+      </c>
+      <c r="U16" t="n">
+        <v>24991.96</v>
+      </c>
+      <c r="V16" t="n">
+        <v>25022.07</v>
+      </c>
+      <c r="W16" t="n">
+        <v>25083.61</v>
+      </c>
+      <c r="X16" t="n">
+        <v>25195.14</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>25212.24</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>24964.6</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>25051.64</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1034.03</v>
+        <v>9336.040000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>1067.42</v>
+        <v>9332.08</v>
       </c>
       <c r="D17" t="n">
-        <v>1176.89</v>
+        <v>9017.77</v>
       </c>
       <c r="E17" t="n">
-        <v>1059.92</v>
+        <v>9273.26</v>
       </c>
       <c r="F17" t="n">
-        <v>1122.16</v>
+        <v>9291.360000000001</v>
       </c>
       <c r="G17" t="n">
-        <v>1083.07</v>
+        <v>9323.959999999999</v>
       </c>
       <c r="H17" t="n">
-        <v>1026.38</v>
+        <v>9313.41</v>
       </c>
       <c r="I17" t="n">
-        <v>1901.62</v>
+        <v>9308.99</v>
       </c>
       <c r="J17" t="n">
-        <v>1849.94</v>
+        <v>9322.32</v>
       </c>
       <c r="K17" t="n">
-        <v>1848.77</v>
+        <v>9290.82</v>
       </c>
       <c r="L17" t="n">
-        <v>1742.1</v>
+        <v>9285.85</v>
       </c>
       <c r="M17" t="n">
-        <v>1606.58</v>
+        <v>9316.629999999999</v>
+      </c>
+      <c r="N17" t="n">
+        <v>9332.07</v>
+      </c>
+      <c r="O17" t="n">
+        <v>9268.33</v>
+      </c>
+      <c r="P17" t="n">
+        <v>9300.5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>9281.690000000001</v>
+      </c>
+      <c r="R17" t="n">
+        <v>9276.290000000001</v>
+      </c>
+      <c r="S17" t="n">
+        <v>9306.92</v>
+      </c>
+      <c r="T17" t="n">
+        <v>9327.129999999999</v>
+      </c>
+      <c r="U17" t="n">
+        <v>9263.9</v>
+      </c>
+      <c r="V17" t="n">
+        <v>9329.85</v>
+      </c>
+      <c r="W17" t="n">
+        <v>9287.65</v>
+      </c>
+      <c r="X17" t="n">
+        <v>9337.469999999999</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>9269.33</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>9318.5</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>9292.549999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>61565.16</v>
+        <v>1606.58</v>
       </c>
       <c r="C18" t="n">
-        <v>64384.36</v>
+        <v>1579.24</v>
       </c>
       <c r="D18" t="n">
-        <v>82576.34</v>
+        <v>1608.75</v>
       </c>
       <c r="E18" t="n">
-        <v>86553.49000000001</v>
+        <v>1508.12</v>
       </c>
       <c r="F18" t="n">
-        <v>85854.67999999999</v>
+        <v>1590.23</v>
       </c>
       <c r="G18" t="n">
-        <v>86002.25999999999</v>
+        <v>1515.21</v>
       </c>
       <c r="H18" t="n">
-        <v>101956.23</v>
+        <v>1493.28</v>
       </c>
       <c r="I18" t="n">
-        <v>102204.28</v>
+        <v>1540.58</v>
       </c>
       <c r="J18" t="n">
-        <v>102099.98</v>
+        <v>1624.47</v>
       </c>
       <c r="K18" t="n">
-        <v>102020.68</v>
+        <v>1620.02</v>
       </c>
       <c r="L18" t="n">
-        <v>101343.11</v>
+        <v>1428.06</v>
       </c>
       <c r="M18" t="n">
-        <v>89368.39</v>
+        <v>1423</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1517.84</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1304.2</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1259.82</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1254.84</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1252.24</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1284.93</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1259.36</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1375.37</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1375.46</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1397.04</v>
+      </c>
+      <c r="X18" t="n">
+        <v>21062.46</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>21501.96</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>21828.79</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>21251.03</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>IEB Value</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>6575.87</v>
-      </c>
-      <c r="C19" t="n">
-        <v>6617.12</v>
-      </c>
-      <c r="D19" t="n">
-        <v>7515.05</v>
-      </c>
-      <c r="E19" t="n">
-        <v>7523.59</v>
-      </c>
-      <c r="F19" t="n">
-        <v>7497.68</v>
-      </c>
-      <c r="G19" t="n">
-        <v>7484.13</v>
-      </c>
-      <c r="H19" t="n">
-        <v>7499.49</v>
-      </c>
-      <c r="I19" t="n">
-        <v>7494.03</v>
-      </c>
-      <c r="J19" t="n">
-        <v>7481.59</v>
-      </c>
-      <c r="K19" t="n">
-        <v>7482.02</v>
-      </c>
-      <c r="L19" t="n">
-        <v>7508.14</v>
-      </c>
-      <c r="M19" t="n">
-        <v>7519.15</v>
+          <t>HF Acciones Lideres</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="n">
+        <v>4287.61</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29486.84</v>
+        <v>89368.39</v>
       </c>
       <c r="C20" t="n">
-        <v>29464.8</v>
+        <v>89113.84</v>
       </c>
       <c r="D20" t="n">
-        <v>29550.86</v>
+        <v>84220.86</v>
       </c>
       <c r="E20" t="n">
-        <v>29767.99</v>
+        <v>85661</v>
       </c>
       <c r="F20" t="n">
-        <v>23552.5</v>
+        <v>87448.94</v>
       </c>
       <c r="G20" t="n">
-        <v>23737.25</v>
+        <v>92771.24000000001</v>
       </c>
       <c r="H20" t="n">
-        <v>23820.82</v>
+        <v>95183.88</v>
       </c>
       <c r="I20" t="n">
-        <v>23598.72</v>
+        <v>98619.25</v>
       </c>
       <c r="J20" t="n">
-        <v>11655.01</v>
+        <v>100068.86</v>
       </c>
       <c r="K20" t="n">
-        <v>11827.11</v>
+        <v>105247.99</v>
       </c>
       <c r="L20" t="n">
-        <v>11695.07</v>
+        <v>105541.84</v>
       </c>
       <c r="M20" t="n">
-        <v>11494.17</v>
+        <v>122250.18</v>
+      </c>
+      <c r="N20" t="n">
+        <v>122388.38</v>
+      </c>
+      <c r="O20" t="n">
+        <v>125906.57</v>
+      </c>
+      <c r="P20" t="n">
+        <v>128537.32</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>128767.78</v>
+      </c>
+      <c r="R20" t="n">
+        <v>128934.12</v>
+      </c>
+      <c r="S20" t="n">
+        <v>128500.07</v>
+      </c>
+      <c r="T20" t="n">
+        <v>113545.34</v>
+      </c>
+      <c r="U20" t="n">
+        <v>97881.49000000001</v>
+      </c>
+      <c r="V20" t="n">
+        <v>95442.8</v>
+      </c>
+      <c r="W20" t="n">
+        <v>93320.49000000001</v>
+      </c>
+      <c r="X20" t="n">
+        <v>97097.37</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>80109.67</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>87684.32000000001</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>87633.19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>78133.67</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
+        <v>7519.15</v>
+      </c>
+      <c r="C21" t="n">
+        <v>7374.83</v>
+      </c>
       <c r="D21" t="n">
-        <v>78564.17</v>
+        <v>7150.88</v>
       </c>
       <c r="E21" t="n">
-        <v>78142.38</v>
+        <v>7350.78</v>
       </c>
       <c r="F21" t="n">
-        <v>78122.42</v>
+        <v>7371.42</v>
       </c>
       <c r="G21" t="n">
-        <v>77687.67</v>
+        <v>7363.92</v>
       </c>
       <c r="H21" t="n">
-        <v>77932.28999999999</v>
+        <v>7361.41</v>
       </c>
       <c r="I21" t="n">
-        <v>78340.53</v>
+        <v>7356.31</v>
       </c>
       <c r="J21" t="n">
-        <v>77835.47</v>
+        <v>7373.23</v>
       </c>
       <c r="K21" t="n">
-        <v>77863.92</v>
+        <v>7351.01</v>
       </c>
       <c r="L21" t="n">
-        <v>78353.78</v>
+        <v>7362.14</v>
       </c>
       <c r="M21" t="n">
-        <v>78046.99000000001</v>
+        <v>7377.48</v>
+      </c>
+      <c r="N21" t="n">
+        <v>7347.04</v>
+      </c>
+      <c r="O21" t="n">
+        <v>7379.65</v>
+      </c>
+      <c r="P21" t="n">
+        <v>7370.01</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>7347.54</v>
+      </c>
+      <c r="R21" t="n">
+        <v>7355.16</v>
+      </c>
+      <c r="S21" t="n">
+        <v>7374.39</v>
+      </c>
+      <c r="T21" t="n">
+        <v>7442.82</v>
+      </c>
+      <c r="U21" t="n">
+        <v>7360.5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>7352.5</v>
+      </c>
+      <c r="W21" t="n">
+        <v>7348.49</v>
+      </c>
+      <c r="X21" t="n">
+        <v>6969.88</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>6975.17</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>6954.55</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>6978.41</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>34736.42</v>
+        <v>11494.17</v>
       </c>
       <c r="C22" t="n">
-        <v>35021.11</v>
+        <v>11781.11</v>
       </c>
       <c r="D22" t="n">
-        <v>35064.67</v>
+        <v>11314.37</v>
       </c>
       <c r="E22" t="n">
-        <v>34700.39</v>
+        <v>11700.33</v>
       </c>
       <c r="F22" t="n">
-        <v>34770.81</v>
+        <v>11511.87</v>
       </c>
       <c r="G22" t="n">
-        <v>35230.64</v>
+        <v>11695.12</v>
       </c>
       <c r="H22" t="n">
-        <v>34699.61</v>
+        <v>11713.86</v>
       </c>
       <c r="I22" t="n">
-        <v>34686.97</v>
+        <v>11492.2</v>
       </c>
       <c r="J22" t="n">
-        <v>34889.34</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>34839.16</v>
-      </c>
-      <c r="L22" t="n">
-        <v>35058.9</v>
-      </c>
-      <c r="M22" t="n">
-        <v>34186.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>23265.9</v>
-      </c>
-      <c r="C23" t="n">
-        <v>23466.91</v>
-      </c>
-      <c r="D23" t="n">
-        <v>23173.55</v>
-      </c>
-      <c r="E23" t="n">
-        <v>23331.44</v>
-      </c>
-      <c r="F23" t="n">
-        <v>23422.28</v>
-      </c>
-      <c r="G23" t="n">
-        <v>23264.37</v>
-      </c>
-      <c r="H23" t="n">
-        <v>23187.01</v>
-      </c>
-      <c r="I23" t="n">
-        <v>23246.49</v>
-      </c>
-      <c r="J23" t="n">
-        <v>23457.94</v>
-      </c>
-      <c r="K23" t="n">
-        <v>23178.72</v>
-      </c>
-      <c r="L23" t="n">
-        <v>23345.59</v>
-      </c>
-      <c r="M23" t="n">
-        <v>23294.44</v>
+          <t>Megainver</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
+        <v>13046.82</v>
+      </c>
+      <c r="O23" t="n">
+        <v>12973.47</v>
+      </c>
+      <c r="P23" t="n">
+        <v>13041.21</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>12921.32</v>
+      </c>
+      <c r="R23" t="n">
+        <v>33413.46</v>
+      </c>
+      <c r="S23" t="n">
+        <v>33453.55</v>
+      </c>
+      <c r="T23" t="n">
+        <v>33526.87</v>
+      </c>
+      <c r="U23" t="n">
+        <v>33500.4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>33447.09</v>
+      </c>
+      <c r="W23" t="n">
+        <v>41839.33</v>
+      </c>
+      <c r="X23" t="n">
+        <v>41899.5</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>41936.36</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>28276.91</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>28338.81</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>136656.94</v>
+        <v>78046.99000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>136740.05</v>
+        <v>77768.64999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>128943.92</v>
+        <v>76397.61</v>
       </c>
       <c r="E24" t="n">
-        <v>127051.11</v>
+        <v>77913.53</v>
       </c>
       <c r="F24" t="n">
-        <v>136293.64</v>
+        <v>78375.64999999999</v>
       </c>
       <c r="G24" t="n">
-        <v>137680.47</v>
+        <v>78196.89999999999</v>
       </c>
       <c r="H24" t="n">
-        <v>137667.53</v>
+        <v>77868.74000000001</v>
       </c>
       <c r="I24" t="n">
-        <v>137917.67</v>
+        <v>78021.25999999999</v>
       </c>
       <c r="J24" t="n">
-        <v>137824.68</v>
+        <v>77713.02</v>
       </c>
       <c r="K24" t="n">
-        <v>138260.61</v>
+        <v>78025.31</v>
       </c>
       <c r="L24" t="n">
-        <v>138175.71</v>
+        <v>77768.62</v>
       </c>
       <c r="M24" t="n">
-        <v>134251.64</v>
+        <v>77724.94</v>
+      </c>
+      <c r="N24" t="n">
+        <v>78218.81</v>
+      </c>
+      <c r="O24" t="n">
+        <v>78201.73</v>
+      </c>
+      <c r="P24" t="n">
+        <v>78509.41</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>78099.57000000001</v>
+      </c>
+      <c r="R24" t="n">
+        <v>78248.74000000001</v>
+      </c>
+      <c r="S24" t="n">
+        <v>77772.60000000001</v>
+      </c>
+      <c r="T24" t="n">
+        <v>78499.94</v>
+      </c>
+      <c r="U24" t="n">
+        <v>78589.33</v>
+      </c>
+      <c r="V24" t="n">
+        <v>78035.14</v>
+      </c>
+      <c r="W24" t="n">
+        <v>78319.42</v>
+      </c>
+      <c r="X24" t="n">
+        <v>77641.8</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>78665.97</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>77828.31</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>77960.28999999999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>691621.47</v>
+        <v>34186.11</v>
       </c>
       <c r="C25" t="n">
-        <v>687495.29</v>
+        <v>35540.15</v>
       </c>
       <c r="D25" t="n">
-        <v>687784.23</v>
-      </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
+        <v>34423</v>
+      </c>
+      <c r="E25" t="n">
+        <v>34665.29</v>
+      </c>
+      <c r="F25" t="n">
+        <v>34419.28</v>
+      </c>
+      <c r="G25" t="n">
+        <v>34423.52</v>
+      </c>
+      <c r="H25" t="n">
+        <v>34158.94</v>
+      </c>
+      <c r="I25" t="n">
+        <v>34006.09</v>
+      </c>
+      <c r="J25" t="n">
+        <v>34668.93</v>
+      </c>
+      <c r="K25" t="n">
+        <v>35293.38</v>
+      </c>
+      <c r="L25" t="n">
+        <v>35128.58</v>
+      </c>
+      <c r="M25" t="n">
+        <v>35541.86</v>
+      </c>
+      <c r="N25" t="n">
+        <v>35589.06</v>
+      </c>
+      <c r="O25" t="n">
+        <v>34820.94</v>
+      </c>
+      <c r="P25" t="n">
+        <v>35489.29</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>34628.15</v>
+      </c>
+      <c r="R25" t="n">
+        <v>35185.16</v>
+      </c>
+      <c r="S25" t="n">
+        <v>34790.67</v>
+      </c>
+      <c r="T25" t="n">
+        <v>35111.42</v>
+      </c>
+      <c r="U25" t="n">
+        <v>35429.57</v>
+      </c>
+      <c r="V25" t="n">
+        <v>35451.99</v>
+      </c>
+      <c r="W25" t="n">
+        <v>34313.57</v>
+      </c>
+      <c r="X25" t="n">
+        <v>34198.19</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>35519.37</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>35274.52</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>35498.67</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>132183.8</v>
+        <v>23294.44</v>
       </c>
       <c r="C26" t="n">
-        <v>117175.09</v>
+        <v>23358.86</v>
       </c>
       <c r="D26" t="n">
-        <v>130049.65</v>
+        <v>22467.14</v>
       </c>
       <c r="E26" t="n">
-        <v>108311.67</v>
+        <v>23242.69</v>
       </c>
       <c r="F26" t="n">
-        <v>108710.95</v>
+        <v>23432.38</v>
       </c>
       <c r="G26" t="n">
-        <v>109175.49</v>
+        <v>37457.62</v>
       </c>
       <c r="H26" t="n">
-        <v>109826.54</v>
+        <v>37369.21</v>
       </c>
       <c r="I26" t="n">
-        <v>109967.93</v>
+        <v>36978.2</v>
       </c>
       <c r="J26" t="n">
-        <v>106068.31</v>
+        <v>37348.56</v>
       </c>
       <c r="K26" t="n">
-        <v>104030.72</v>
+        <v>36995.35</v>
       </c>
       <c r="L26" t="n">
-        <v>99338.16</v>
+        <v>37407.56</v>
       </c>
       <c r="M26" t="n">
-        <v>97997.06</v>
+        <v>37075.69</v>
+      </c>
+      <c r="N26" t="n">
+        <v>47387.55</v>
+      </c>
+      <c r="O26" t="n">
+        <v>47386.49</v>
+      </c>
+      <c r="P26" t="n">
+        <v>47446.8</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>47161.75</v>
+      </c>
+      <c r="R26" t="n">
+        <v>47246.32</v>
+      </c>
+      <c r="S26" t="n">
+        <v>47486.81</v>
+      </c>
+      <c r="T26" t="n">
+        <v>47772.42</v>
+      </c>
+      <c r="U26" t="n">
+        <v>47265.76</v>
+      </c>
+      <c r="V26" t="n">
+        <v>47478.58</v>
+      </c>
+      <c r="W26" t="n">
+        <v>47040.66</v>
+      </c>
+      <c r="X26" t="n">
+        <v>47656.65</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>47062.39</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>47467.63</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>47131.78</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
+          <t>Quinquela Acciones</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
+        <v>49786.33</v>
+      </c>
+      <c r="O27" t="n">
+        <v>45164.24</v>
+      </c>
+      <c r="P27" t="n">
+        <v>40681.61</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>40958.13</v>
+      </c>
+      <c r="R27" t="n">
+        <v>103908.91</v>
+      </c>
+      <c r="S27" t="n">
+        <v>103916.06</v>
+      </c>
+      <c r="T27" t="n">
+        <v>103373.41</v>
+      </c>
+      <c r="U27" t="n">
+        <v>103909.2</v>
+      </c>
+      <c r="V27" t="n">
+        <v>103717.22</v>
+      </c>
+      <c r="W27" t="n">
+        <v>103848.61</v>
+      </c>
+      <c r="X27" t="n">
+        <v>103582.24</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>103295.41</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>73311.35000000001</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>72985.02</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Rofex 20 Renta Variable</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>134251.64</v>
+      </c>
+      <c r="C28" t="n">
+        <v>128131.69</v>
+      </c>
+      <c r="D28" t="n">
+        <v>124469.95</v>
+      </c>
+      <c r="E28" t="n">
+        <v>129396.16</v>
+      </c>
+      <c r="F28" t="n">
+        <v>128112.97</v>
+      </c>
+      <c r="G28" t="n">
+        <v>137837.88</v>
+      </c>
+      <c r="H28" t="n">
+        <v>138163.31</v>
+      </c>
+      <c r="I28" t="n">
+        <v>137882.04</v>
+      </c>
+      <c r="J28" t="n">
+        <v>137818.71</v>
+      </c>
+      <c r="K28" t="n">
+        <v>138286.67</v>
+      </c>
+      <c r="L28" t="n">
+        <v>136854.99</v>
+      </c>
+      <c r="M28" t="n">
+        <v>130780.76</v>
+      </c>
+      <c r="N28" t="n">
+        <v>128621.41</v>
+      </c>
+      <c r="O28" t="n">
+        <v>129874.8</v>
+      </c>
+      <c r="P28" t="n">
+        <v>137923.31</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>119258.22</v>
+      </c>
+      <c r="R28" t="n">
+        <v>119404.13</v>
+      </c>
+      <c r="S28" t="n">
+        <v>119484.9</v>
+      </c>
+      <c r="T28" t="n">
+        <v>132029.86</v>
+      </c>
+      <c r="U28" t="n">
+        <v>130822.43</v>
+      </c>
+      <c r="V28" t="n">
+        <v>128790.99</v>
+      </c>
+      <c r="W28" t="n">
+        <v>128890.26</v>
+      </c>
+      <c r="X28" t="n">
+        <v>144021.02</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>144309.38</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>144472.68</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>144545.45</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>97997.06</v>
+      </c>
+      <c r="C29" t="n">
+        <v>97801.21000000001</v>
+      </c>
+      <c r="D29" t="n">
+        <v>95134.34</v>
+      </c>
+      <c r="E29" t="n">
+        <v>97774.66</v>
+      </c>
+      <c r="F29" t="n">
+        <v>98514.14</v>
+      </c>
+      <c r="G29" t="n">
+        <v>101791.08</v>
+      </c>
+      <c r="H29" t="n">
+        <v>98604.14999999999</v>
+      </c>
+      <c r="I29" t="n">
+        <v>100427.8</v>
+      </c>
+      <c r="J29" t="n">
+        <v>104162.59</v>
+      </c>
+      <c r="K29" t="n">
+        <v>104962.31</v>
+      </c>
+      <c r="L29" t="n">
+        <v>111424.26</v>
+      </c>
+      <c r="M29" t="n">
+        <v>115826.47</v>
+      </c>
+      <c r="N29" t="n">
+        <v>110411.94</v>
+      </c>
+      <c r="O29" t="n">
+        <v>111603.92</v>
+      </c>
+      <c r="P29" t="n">
+        <v>114752.75</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>117218.16</v>
+      </c>
+      <c r="R29" t="n">
+        <v>121696.83</v>
+      </c>
+      <c r="S29" t="n">
+        <v>122613.86</v>
+      </c>
+      <c r="T29" t="n">
+        <v>122706.55</v>
+      </c>
+      <c r="U29" t="n">
+        <v>123198.68</v>
+      </c>
+      <c r="V29" t="n">
+        <v>123148.1</v>
+      </c>
+      <c r="W29" t="n">
+        <v>124569.85</v>
+      </c>
+      <c r="X29" t="n">
+        <v>127891.22</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>124946.27</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>121472.44</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>117769.62</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
           <t>total</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>3172411.23</v>
-      </c>
-      <c r="C27" t="n">
-        <v>2226326.73</v>
-      </c>
-      <c r="D27" t="n">
-        <v>3121191.54</v>
-      </c>
-      <c r="E27" t="n">
-        <v>2491168.52</v>
-      </c>
-      <c r="F27" t="n">
-        <v>2500351.86</v>
-      </c>
-      <c r="G27" t="n">
-        <v>2511036.3</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2526010.41</v>
-      </c>
-      <c r="I27" t="n">
-        <v>2529262.34</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2439571.13</v>
-      </c>
-      <c r="K27" t="n">
-        <v>2392706.55</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2284777.7</v>
-      </c>
-      <c r="M27" t="n">
+      <c r="B30" t="n">
         <v>2253932.43</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2249427.89</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2188089.93</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2248817.2</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2265825.33</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2341194.95</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2366499.57</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2410267.3</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2499902.25</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2519095.4</v>
+      </c>
+      <c r="L30" t="n">
+        <v>2562757.97</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2664008.89</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2760298.46</v>
+      </c>
+      <c r="O30" t="n">
+        <v>2790098.03</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2868818.69</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2930454.12</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3042420.81</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3065346.38</v>
+      </c>
+      <c r="T30" t="n">
+        <v>3067663.67</v>
+      </c>
+      <c r="U30" t="n">
+        <v>3079966.92</v>
+      </c>
+      <c r="V30" t="n">
+        <v>3078702.44</v>
+      </c>
+      <c r="W30" t="n">
+        <v>3114246.27</v>
+      </c>
+      <c r="X30" t="n">
+        <v>3197280.59</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>3123656.64</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>3036810.88</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>3062010.02</v>
       </c>
     </row>
   </sheetData>
